--- a/500all/speech_level/speeches_CHRG-114hhrg96270.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96270.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Well, good morning. Welcome here to the Oversight and Investigations Subcommittee hearing.    I just want to say it's Mental Health Month, so it's fitting that we are here today on this issue. This is the third in a series of hearings examining the growing problem of prescription drugs and heroin addiction that is ravaging our country. This is our Nation's single biggest public health concern.    Over the past 5 weeks, this subcommittee has heard from addiction experts working with local communities and our leading academic and research centers. Dr. Robert DuPont, the former White House Chief of Drug Control Policy and the first director of the National Institute on Drug Abuse, testified that Federal programs lack direction and standards on treating addiction as a chronic condition, and noted what is being done to follow up with patients to prevent relapses and put them on a path of real recovery? He challenged us to even ask the most fundamental question, ``What is recovery?''    Dr. Anna Lembke of Stanford Medical School provided critical testimony on how we must revise our healthcare quality measures to reduce overprescribing, reform medical privacy regulations, and incentivize the use of prescription drug monitoring programs.    We know that those with opiate addiction disorders need a broad range of treatment options and that many with substance abuse disorders have co-occurring psychiatric disorders, but we need to tear down Federal policy and funding barriers that keep us from treating both simultaneously.    About 3 weeks ago, one of today's witnesses, Mr. Michael Botticelli, the Director of the Office of National Drug Control Policy, presented a slide--I'm going to show it here--at the National Rx Summit on major causes of death from injury from 1999 to 2013. Quite a revealing slide. While the trends of other major causes of death, such as auto accidents went down, drug poisoning continued to go up 21 percent from 2008 till 2013. In many States, these numbers are soaring at high double-digit rate increases. As Mr. Botticelli has indicated to me privately and at the Rx Summit, we must do better, and we have much work to do.    Today, we will hear from Federal agencies charged with providing guidance, direction, and leadership in our Nation's public health response to the opiate epidemic. No Federal agency is more central in this ongoing epidemic than the Department of Health and Human Services or HHS. HHS and its Substance Abuse and Mental Health Services Administration, also known as SAMHSA, are responsible for leading our Nation's public health response to the opiate heroin abuse and addiction crisis.    SAMHSA regulates our country's 1,300 opiate treatment programs, and SAMHSA is responsible for certifying the 26,000 physicians who prescribe the most commonlyused opiate maintenance medication, buprenorphine. According to testimony provided by SAMHSA before this subcommittee in April of last year, there were nearly 1.5 million people treated with these opiate maintenance medications in 2012, which is a fivefold increase in the last 10 years.    Has SAMHSA defined the goal of recovery for what these federally subsidized treatment programs are supposed to accomplish? Is SAMHSA collecting and evaluating meaningful data at an individualized level that would hold grant recipients individually accountable for effective results? So far, preliminary examination indicates the answers are no. And when you don't define where you're going, every road you take still leaves you lost. So we're hoping we can get some direction today.    The numbers indicate we are failing as a Nation, and we darn well better come to terms with that. The 43,000 lives lost last year, the thousands of babies born addicted to opiates tell us the terrible toll this epidemic has taken. You've heard my thoughts about the Government-sponsored promotion of what I've characterized as addiction maintenance, and I refer to buprenorphine as heroin helper, not because the medication is altogether lacking, because it is helpful, but rather, because infrastructure the Federal Government has created for the use of this highly potent and important medication is not fully working and, worse yet, in many cases, contributing to the growing problem. This has to be fixed, and I hope we'll find some solutions, and that is what we need to discuss today openly, honestly, and humbly.    If we do not reverse the current trend, where is this going to end? How many millions of citizens do we want to have on opiate maintenance? How many more must die? And how many more lives and dreams must be shattered before we recognize the depth of this national scourge?    Now, I don't believe in better living through dependency. And, again, please do not misconstrue this critique as a general indictment of opiate maintenance. It is not. For some people, opiate maintenance is the most appropriate bridge treatment, and there should be no shame or stigma associated with it. But opiate maintenance therapy should not be the only treatment offered to the opiate-dependent individuals, and it is not the only goal.    What patients on opiate maintenance can be successfully transition off of these medications? What protocols are best for affecting this transition? What are the best practice for prevention of relapse for those patients who end opiate maintenance treatment? There are nonaddictive medications approved for this use, but are these medications widely available and how well do they work?    The diversion of buprenorphine for illicit nonmedical use is a related problem, because this is how the opiate epidemic can be spread. According to the DEA, buprenorphine is the third most often seized prescription opiate by law enforcement today. Where is a call to modernize our existing opiate addiction treatment system to ensure that the right patient gets the right treatment at the right time? Why aren't we hearing about expanding access to nonaddictive narcotic treatments that have zero potential for abuse or diversion, such as Naltrexone and evidence-based counseling? These are all incredibly important tools, and we want to make sure HHS talks more about these.    Last week, Dr. Westley Clark, the former Director of SAMHSA Center for Substance Abuse treatment and the man who oversaw the growth of buprenorphine over the past decade declared before the American Society of Addiction Medicine that many buprenorphine practices have become pill mills where doctors and dealers were increasingly indistinguishable and physician negligence and alleged laboratory fraud prevailed. The problem is not with buprenorphine, however. The problem lies with current practices, and this is what we need to discuss.    I consider opiate maintenance as a bridge for those with addiction disorders to cross over in the recovery process. And as I said, it is not a final destination. We seek to lay out a vision for recovery that includes complete withdrawal from opiates as an option. For cancer, for diabetes, for AIDS, we want people to be free of the diseases, not just learn to live with it. We need to commit the same sorts of things through our research and clinical efforts that boldly declare what we must change here.    I thank our witnesses for being here today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you so much, Mr. Chairman.    I think it's really important to hear from our witnesses today about the work the Federal Government is doing to address this serious public health issue, and I know all of the agencies represented before us do critical work to prevent and treat this epidemic.    In March, Secretary Burwell announced an initiative to combat the opioid crisis. I applaud the Department's actions, and I'm gratified to hear that this is one of the Secretary's top priorities. I want to hear more about this initiative today and how all the agencies before us are working together to accomplish its goals. But at the same time, I have some hard questions about our approach to caring for those who have substance abuse disorders.    Last week, we heard from a panel of medical experts who have vast experience in treating opioid addiction. Unfortunately, as the chairman said, they gave us a fairly bleak view of the opioid treatment landscape in this country. For example, one witness, Dr. Adam Bisaga, a psychiatrist at Columbia University and a research scientist at the New York State Psychiatric Institute, told the committee that the majority of patients being treated for opioid addiction received treatment that is both, ``outdated'' and ``mostly ineffective.'' He described this approach of rapid detoxification, followed by an abstinence-only method without the use of important treatment medications. Dr. Bisaga added that this is potentially dangerous because it raises the risk of an overdose if a patient relapses.    As troubling as this testimony from our last hearing was, today we have Dr. Volkow on our panel, who is one of the world's top experts on addiction research. And she notes--I'm sure you'll talk more about this, Doctor--in her written testimony that, ``Existing evidence-based prevention and treatment strategies are highly underutilized across the United States.''    Why is that, Mr. Chairman? Why do we have experts week after week telling us that the bulk of the treatment Americans are receiving for this devastating disease are ineffective, outdated, and not evidence based.    We need to be asking ourselves some tough questions. For example, Dr. Westreich, the president of the American Academy of Addiction Psychiatry, told us last week, ``Patients and their families need to know that detoxification treatment and drug-free counseling are associated with a very high risk of relapse.'' Are patients enrolling in treatment getting sufficient data so they can make medically informed choices? Are families and loved ones being told what approaches have high failure rates before choosing an approach to treatment? Frankly, this is not a decision that should be taken lightly. Getting ineffective treatment may not only be financially costly, but it may result in a fatal relapse.    Finally, Mr. Chairman, recent testimony, including some I saw in the written statements for today, raises important questions about whether taxpayer dollars should fund certain approaches for combating this opioid epidemic over others. This is an issue I've been talking about week after week. We all agree that we need the most effective treatment, and our experts agree that this treatment needs to be a broad menu of options that is different from patient to patient.    So we might not have a silver bullet to cure opioid addiction at this point, but we do know what treatments work better than others. Evidence tells us--and all the medical experts we heard from last week agree--that for most patients a combination of medication-assisted treatment and behavioral treatment, such as counseling and other supportive services, is the most effective way to treat opioid addiction. If that's the case, we should pursue more policies that encourage this approach as a clear option and steer away from any efforts that are not evidence based. It's costly, and it's dangerous to the patient.    So I hope we can all work together to fight this epidemic, and I do look forward to hearing from all of our witnesses. I'm glad Secretary Burwell and the department are devoting serious attention to addressing both the prevention and treatment sides of this problem.    And, Mr. Chairman, this has been a really great series. I'm happy to have a whole investigation like this in this committee. There's one group that we haven't heard from yet, I'm hoping----</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. We really are going to have votes at 9:30?</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. I'll do the same, Mr. Chairman, because we both have to go to the other hearing.</t>
   </si>
   <si>
@@ -142,9 +130,6 @@
     <t>412543</t>
   </si>
   <si>
-    <t>Joseph P. Kennedy III</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you very much for the consideration. I yield back.</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Botticelli</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Botticelli. Thank you, Chairman Murphy, Ranking Member DeGette, and members of the subcommittee for the opportunity to provide testimony to you today about the administration's efforts to address the opioid epidemic in the United States.    Mr. Chairman, as you recognized, in 2013 almost 44,000 Americans died of a drug overdose. That's one drug overdose death every 12 minutes. Using ONDCP's role as the coordinator of the Federal Drug Control agencies, in 2011, we published the administration's Prescription Drug Abuse Prevention Plan to address the sharp rise in prescription opioid drug abuse in this country since 1999. As you know, the plan consists of action items categorized under four pillars: Education of patients and prescribers; increased prescription drug monitoring; proper medication disposal; and informed law enforcement.    With the work of our HHS partners here today, and other Federal partners as part of the Interagency Prescription Drug Work Group convened by ONDCP, we have made some strides in each of these areas, but there is much more to be done.    Since time in graduate medical education programs devoted to the identification of treatment of substance abuse disorders is rare, we have worked with our Federal partners to develop continuing education programs about substance abuse, managing pain appropriately, and treating patients using opioids more safely. Many prescribers in Federal agencies, including HHS, are receiving this important training. Despite this, a large percentage of prescribers have not availed themselves of this training. Therefore, the administration continues to press for mandatory prescriber education tied to controlled substance licensure. I am pleased that Secretary Burwell has expressed her support for working with Congress to set requirements for specific training for opioid prescribers.    Today, all States but one, Missouri, have prescription drug monitoring programs that allow prescribers to check on drug interactions as well as alert them to the signs of dependence on opioids. Missouri is also working to authorize a PDMP program. With almost all States implementing PDMPs, we are focusing on improving State-to-State data sharing, and improving access to PDMP data within the health record systems providers use every day.    In October, the Drug Enforcement Administration's final regulation on controlled substances disposal became effective. ONDCP and our Federal partners and stakeholders have begun to inform the public about these regulations and look to ways to stimulate more local disposal programs in partnerships with pharmacies, local government, community groups, and local law enforcement.    And the work of our law enforcement partners at the Federal, State, and local levels is ongoing. Those engaged in fraud across the drug control supply chain are being investigated and prosecuted.    Recent data shows we are seeing an overdose from prescription opioids leveling off in this country, but a dramatic 39 percent increase in heroin overdoses from 2012 to 2013. This is creating an additional need for treatment in a system where a well-known gap between treatment capacity and demand already exists. Therefore, we must redouble our efforts to address people who are misusing prescription opioids, since we know this is a major risk factor for subsequent heroin use.    Earlier this week, the administration held the inaugural meeting of the congressionally mandated interagency Heroin Task Force. Mary Lou Leary, our Deputy Director for State, Local, and Tribal Affairs, is one the cochairs for this committee. In addition, the President's FY '16 budget request includes $99 million in additional funding for treatment and overdose prevention efforts.    We have also been working to increase access to the emergency opioid overdose reversal drug, naloxone, and to promote Good Samaritan laws so that witnesses can take steps to help save lives. Many police and fire departments have already trained and equipped their personnel with this life-saving drug, and loved ones of people with opioid drug use disorders are equipping themselves as well.    And while law enforcement and other first responders have an important role to play, the medical establishment also must become more engaged to identify and treat heroin and prescription opioid use disorders. Every day, these people appear in our emergency departments and other medical settings, and more models and interventions are needed to get these individuals engaged in care.    We also need to expand availability of evidence-based opioid use disorder treatments. Medication-assisted treatment, which uses FDA-approved medications, combined with behavioral and other recovery supports, has been shown to be the most effective treatment for opioid use disorders. Decisions about the most appropriate treatment options and their duration need to be agreed upon by both the patient and the treatment provider.    We must also provide community supports, such as access to housing, employment, and education, to give patients the functional tools they need to lead healthier lives and fully integrate into the community as part of their recovery process.    While we support multiple pathways to recovery, the literature shows that short-term treatment, such as detoxification alone, is not effective and carries risk of relapse and overdose death. Because of the lack of availability of evidence-based maintenance treatments and the strong connection between injection of opioid drugs and infectious disease transmission, we also promote the use of public health strategies that will help prevent the further spread of infectious disease. The HIV and hepatitis C outbreak in Scott County, Indiana, is a stark reminder of how opioid use can spread other diseases, how comprehensive public health strategies, such as syringe exchange programs, need to be part of the response to the opioid use epidemic, and how rural communities that have limited treatment capacity may experience additional public health crises.    Finally, we are continuing our efforts to address neonatal abstinence syndrome. Research published just yesterday shows that the incidence of NAS has grown nearly fivefold between 2000 and 2012 and that 81 percent of the 2012 hospital charges for NAS were attributed to Medicaid. We must consider that the best interest of babies with NAS is often served by best addressing the interests of the mother. Therefore, we need to provide safe harbor for pregnant and parenting women seeking prenatal care and treatment.    In conclusion, we look forward to working with Congress and our Federal partners on the next stage of action to address this epidemic. Thank you.</t>
   </si>
   <si>
@@ -172,45 +154,30 @@
     <t xml:space="preserve">    Mr. Murphy. All right. Thank you for being patient.    All right. Dr. Volkow, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Volkow</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Volkow. Good morning, Chairman Murphy, Ranking Member DeGette, and other members of the subcommittee. I want to thank you for organizing and inviting me to participate in this important hearing.    The nonmedical use of prescription pain relievers is a particular public health challenge, for it demands solutions, on the one hand, to prevent their diversion and misuse, while at the same time, it demands so many solutions that will not jeopardize access to these medications for those that need them.    Opiate medications are probably among the most effective painkillers that we have for the management of acute severe pain, and the proper use can actually save lives. They act by activating opioid receptors that are located in the areas of the brain that perceive pain, but there are very high concentration of opioid receptors in brain reward regions, and hence, the problem. Activation of these receptors is what is associated with their addiction potential.    There are also high levels of receptors in areas of the brain that regulate breathing, which is why their use is associated also with a high risk of death from overdose.    We have heard the devastating consequences from the escalation of the abuse of prescription medications in our country, the overdose deaths and transition to injection of heroin and associated infections with HIV and hepatitis C, and increasing numbers that we are seeing for the neonatal abstinence syndrome.    NIDA's role in helping solve this epidemic is to support the research that will help develop solutions to prevent and treat abuse of prescription medications that could be implemented now, while, at the same time, funding research that in the future will provide transformative solutions.    There are already evidence-based practices that have been shown to be effective in the prevention of overdose death that include the use of medications for opioid addiction and the use of naloxone to reverse opioid overdoses.    There are three medications currently available to treat opioid addiction: methadone, buprenorphine, and naltrexone, which, when used as part of a comprehensive addiction treatment plan, have been shown to facilitate abstinence and reduce overdoses and HIV infections. Also, when coupled to prenatal care in pregnant women addicted to opioids, these medications reduce the risk of obstetrical fetal and neonatal complications. Yet, despite the strong evidence, less than 40 percent of those receiving treatment for opioid addiction get treated with these medications. Toward this end, NIDA is funding research on implementation strategies that facilitate the use of medications for opioid addiction in the healthcare system.    Another key component to decrease the overdose deaths is to expand the use of naloxone, so NIDA has partnered with pharmaceutical companies to develop user-friendly, effective delivery systems for naloxone that will facilitate their use by those that have absolutely no medical training.    In addition, NIDA supports research on the treatment of pain and on the treatment of opioid addiction that will offer new solutions for the treatment of these two disorders. Examples for the management of pain include the development of drug combinations or new formulations with less addiction potential, the development of analgesics that do not rely on the opioid system, and the development of nonmedication interventions, such as the use of transcranial magnetic or electrical brain stimulation for pain management.    Examples of research on the treatment of opioid addiction include the development of slow-release formulations that need only once-a-month or once-every-6-months dosing--which will facilitate compliance and use--and the development of vaccines against heroin, which will prevent the delivery of the drug into the brain, hence, interfering with its rewarding effects and adverse consequences.    Because the epidemic of prescription drug abuse resulted from a lack of knowledge by healthcare providers, the importance of developing curriculum to train both in pain and in substance abuse disorders is another priority which NIDA has developed in partnership with the other institutes and NIH Centers of Excellence.    There were over 24,000 deaths from opioid overdoses in 2013. Twenty-four thousand. This highlights the urgency to address this epidemic. Solutions are already available. The challenge is the implementation. This requires strong integration of efforts, and NIDA will continue to work closely with other Federal agencies, community organizations, and private industries to address this complex challenge.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Throckmorton, 5 minutes.</t>
   </si>
   <si>
-    <t>Throckmorton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Throckmorton.  Mr. Chairman, Ranking Member DeGette, and members of the subcommittee, I am Dr. Douglas Throckmorton, Deputy Director for Regulatory Programs within FDA's Center for Drug Evaluation and Research. Thank you for the opportunity to be here today to discuss FDA's role in combating opioid abuse and encouraging the safe use of these important drugs.    Our goal is to find the balance between needing to treat patients with pain, including the use of opioids where appropriate, and needing to reduce opioid drug abuse. This work is being done together with other parts of the Federal Government, and we know that a successful and sustainable response must include Federal and State Government, public health officials, opioid prescribers, addiction experts, researchers, manufacturers, and patient organizations.    For our part, FDA plays a central role in the regulation and use of drugs from their discovery and throughout their marketing. For example, when FDA reviews a drug for possible marketing, we also approve drug labeling, which includes information about approved uses about the medicine, as well as information about potential safety risks. FDA also carefully follows drugs after they are marketed, including opioid drugs. Where necessary, this enables us to take a variety of actions to improve their safe use, such as changes to approved labeling.    The first area of FDA activity I'd like to highlight is our work to support the development of abuse-deterrent formulations that make opioids harder or less rewarding to abuse. While this is not a silver bullet that will prevent all abuse, FDA believes abuse-deterrent opioids can help reduce opioid abuse. To incentivize their development, FDA recently issued final guidance on abuse-deterrent formulations, guidance we are using now to meet with sponsors interested in developing them.    To date, FDA has received some 30 investigational new drug applications from manufacturers. In addition, we have approved four opioid drugs with abuse-deterrent claims in their labeling.    Overall, then, while we are in the early stages of development, I am encouraged by this level of work. FDA envisions a day not far in the future when the majority of opioids in the marketplace are in effective, abuse-deterrent forms.    Next, with regards to prescribing opioids, we know that they are powerful medicines, and FDA believes that it is critically important to ensure that prescribers have high quality education about how to use them in pain management.    Over the past several years, FDA has done several things to improve educational materials on opioids. For example, we recently finalized required changes to the approved labels of extended-release, long-acting opioids, changing their indication to inform prescribers that these drugs should only be used for pain severe enough to require daily around-the-clock treatment when alternative treatments would not work.    At the same time, FDA strengthened significantly the safety warnings on these opioids. We want prescribers to use them with care, and today, the labels for extended-release, long-acting opioids are among the most restrictive of any drugs that we have in the center, and have clear language that calls attention to their potentially life-threatening risks.    FDA's also working to improve the information available for prescribers in other ways. Under certain circumstances, FDA can require manufacturers, as a part of a risk evaluation and mitigation strategy, to address safety concerns such as opioid abuse. In 2012, FDA required manufacturers to fund the development of unbiased continuing education programs on opioid prescribing practices for prescribers. In the first year since that program has been in place, approximately 6 percent of the 320,000 prescribers, around 20,000 prescribers of extended-release and long-acting opioids, have completed one of those courses. We believe this training for prescribers is important. We also support mandatory education for prescribers of opioids, as called for by the administration in the 2011 Prescription Drug Abuse Prevention Plan, and reemphasized in the 2014 National Drug Control Strategy.    Finally, FDA has been working with many other stakeholders, including the agencies here today, to explore the best ways to prevent overdose deaths by the expanded use of naloxone. As others have said, it can and does save lives. FDA is working to facilitate the development of naloxone formulations that could be easier to use by anyone responding to an overdose. First, FDA meets with manufacturers whenever needed and is using whatever tools we can to expedite product development. We recently approved the first auto-injector formulation of naloxone, which is intended to be administered by people witnessing an overdose, such as family members and caregivers. We completed that review and approved this product in 15 weeks.    Going forward, we continue to work on how best to use naloxone. As a part of this work, FDA, and many of the others agencies at this table, are planning a public meeting in July to bring together key stakeholders to deal with questions of access, coprescribing of naloxone, and State and local best practices.    In conclusion, as a society, we face an ongoing challenge and a dual responsibility. We must balance efforts to address opioid drug misuse, abuse, and addiction against the need for access to appropriate pain management. These are not simple issues and there are no easy answers. FDA is taking important actions we hope will achieve this balance. We welcome the opportunity to work with Congress, our Federal partners, the medical community, advocacy organizations, and the multitude of interested communities and families to turn the tide on this devastating epidemic.    Thank you for this opportunity to testify. I look forward to answering any questions that I can.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Doctor.    Dr. Houry.</t>
   </si>
   <si>
-    <t>Houry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Houry. Chairman Murphy, Ranking Member DeGette, I would like to thank you for inviting me here today to discuss this very important issue. I would also like to thank the committee for your continued interest in prescription opioid abuse and overdose. My name is Dr. Debra Houry, and I am the director of the National Center for Injury Prevention and Control at the     As a trained emergency room physician, I have seen firsthand the devastating impact of opioid addiction on individuals and their families, as well as the importance of prevention. Together, we have witnessed a deadly epidemic unfolding in States and communities across the country. The overdose epidemic is driven, in large part, by fundamental changes in the way healthcare providers prescribe opioid pain relievers. Enough prescriptions were filled in 2012 for every American adult to have their own bottle of pills. As the amount of opioids prescribed increased, so has the number of deaths.    In alignment with the Department's initiative, I want to highlight CDC's work in developing evidence-informed opioid prescribing guidelines for chronic pain and providing direct support to States to implement multi-sector prevention programs.    CDC is currently developing guidelines for the prescribing of opioids for chronic noncancer pain. This undertaking is responsive to a critical need in the field. These new guidelines will redefine best practices around opioid prescribing for chronic pain and make important advances in protecting patients. The audience for these guidelines are primary care practitioners, who account for the greatest number of prescriptions for opioids compared to other specialties. The guidelines process is underway, and our goal is to share a draft for public comment by the end of this year. We have plans in place to encourage uptake and usage of the guidelines among providers, which is key for improving prescribing practices.    The second activity I would like to highlight is our major investment in State-level prevention. States are at the front lines of this public health issue, and CDC is committed to equipping them with the expertise they need to reverse the epidemic and protect their communities. Utilizing the newly appropriated $20 million, we recently published a new funding opportunity called Prescription Drug Overdose: Prevention for States. It builds upon existing CDC-funded State programs and targets States that have a high drug overdose burden and those that demonstrate readiness needed to combat the epidemic. It requires collaboration across sectors for a truly comprehensive response.    The goals for this program are to make prescription drug monitoring programs more timely, easier to use, and able to communicate with other State PDMPs, to implement Medicaid or Workers' Compensation interventions to protect patients at risk, and to bring data-driven prevention to the communities struggling with the highest rates of drug abuse and overdose. States also will be given the flexibility to use the program to respond to emerging crises and develop innovative interventions so they know what works to reduce overdose and save lives in their community.    The development of opioid prescribing guidelines and our State prevention program are two key ways that CDC's broad work on the epidemic contributes to the Department's initiative.    We are also examining the increase in heroin use and overdose. Heroin overdose deaths have more than doubled since 2010, and prescription opioid abuse, a key risk factor for heroin use, has contributed significantly to this rise in heroin use and overdose. We will leverage our scientific expertise to improve public health surveillance of heroin and evaluate effective strategies to prevent future heroin overdoses.    Addressing this complex problem requires a multifaceted approach and collaboration among a variety of stakeholders, but it can be accomplished, particularly with the ongoing efforts of all of the organizations represented here on this panel.    CDC is committed to tracking and understanding the epidemic, supporting States working on the front lines of this crisis, and providing healthcare providers with the data, tools, and guidance they need to ensure safe patient care.    Thank you again for the opportunity to be here with you today and for your continued work and support of us protecting the public's health. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Doctor.    Pamela Hyde, welcome back.</t>
   </si>
   <si>
-    <t>Hyde</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hyde. Good morning, Chairman Murphy, Ranking Member DeGette, and members of the subcommittee. Thank you for inviting SAMHSA to be part of this hearing, and thank you for your interest in this important public health issue.    According to SAMHSA's National Survey on Drug Use and Health, the prevalence rate of nonmedical use of prescription opioids is high, approximately 4.5 million individuals in 2013. Heroin use is much lower, About 289,000 individuals reporting past month use, but that's doubled in 5 years.    Fortunately, the nonmedical use of pain relievers has actually decreased some from 2009 to 2013, especially among young people 12 to 17. However, as you know, overdoses and overdose-related deaths from both prescription drugs and heroin have risen dramatically among all ages. And as you've heard, few who need treatment are receiving the comprehensive community-based services they need to live lives in recovery, free of addiction.    SAMHSA believes prevention is the priority and recovery is the goal. SAMHSA's programs, data, practice improvement, public education, and regulatory efforts are all designed to prevent addiction and overdoses, help provide the treatment and services needed for people with substance abuse disorders to achieve recovery, support their families, and foster supportive communities.    SAMHSA funds the American Academy of Addiction Psychiatry, together with six other medical societies, to train prescribers in the best approaches to pain management. SAMHSA also educates physicians on medication-assisted treatment for opioid addiction. SAMHSA's Addiction Technology Transfer Centers provide training and materials on opioid use disorders, and are cofunded with NIDA to distribute research-based best practices to the field of addiction treatment.    To help prevent opioid-overdose-related deaths, SAMHSA alerted States last year that substance abuse treatment block grant funds may be used to purchase and distribute naloxone and increase education and training on its use. Also in 2014, SAMHSA updated its opioid overdose prevention toolkit to educate individuals, families, first responders, and others about steps to prevent and reverse the effects of opioid overdoses, including the use of naloxone. This toolkit's one of the most downloaded resources on SAMHSA's Web site.    The President's 2016 budget includes $12 million in discretionary grants for States to purchase and distribute naloxone, equip first responders in high risk communities, and support education on the use of naloxone and other overdose prevention strategies.    SAMHSA also supports medication-assisted treatment as part of a recovery-oriented, person-centered care model. Medication-assisted treatment is not meant as a standalone approach, but rather is designed to include medication, counseling, behavioral therapies, and recovery supports.    In March 2015, SAMHSA issued revised Federal guidelines for opioid treatment programs which highlight this recovery-oriented care model, and encouraged the use of any of the three FDA-approved medications for the treatment of opioid use disorder based on an assessment of each individual's unique needs.    SAMHSA's also taking an integrated clinical care approach as part of a new 2015 grant program to expand and enhance the availability of medication-assisted treatment and other clinically appropriate services in States with the highest rates of opioid admissions. The President's 2016 budget proposes to double this program.    In collaboration with DOJ and ONDCP, SAMHSA added language to its 2015 treatment drug court grant requirements to ensure that drug court clients will not be compelled to stop or be prevented from using medication if it is prescribed or dispensed consistent with a licensed prescriber's recommendation, a valid prescription, or as part of a regulated opioid treatment program.    SAMHSA regulates opioid treatment programs, which are expected to provide a full range of services for their patients. In collaboration with the Drug Enforcement Administration, SAMHSA provides waivers to physicians wishing to treat opioid use disorders with buprenorphine in a practice setting other than an opioid treatment program.    SAMHSA also funds efforts to help prevent prescription opioid misuse and heroin use. For example, in 2014, SAMHSA's Strategic Prevention Framework--Partnerships for Success program, made preventing and reducing heroin use one of its focus areas, along with prescription drug misuse and abuse, and underage drinking. For 2016, the President has proposed $10 million for the Strategic Prevention Framework Rx, or SPF Rx, to help States use data, including PDMP data, to identify and assist communities at high risk for the nonmedical use of prescription drugs.    We want to thank you, again, for taking on this issue and for allowing SAMHSA an opportunity to share some of its efforts with you. We look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Ms. Hyde.    Dr. Conway, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Conway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Conway. Chairman Murphy, Ranking Member DeGette, and members of the subcommittee, thank you for inviting me to discuss the CMS's work to ensure that all Medicare and Medicaid beneficiaries are receiving the medicines they need, while also reducing and preventing prescription drug abuse.    As we have heard from other witnesses, opioid analgesics have increasingly been implicated in drug overdose deaths over the last decade. As a practicing physician, I understand the importance of this issue.    CMS recognizes our responsibility to protect the health of Medicare and Medicaid beneficiaries by ensuring that appropriate safeguards are in place to help prevent overuse and abuse of opioids, while ensuring that beneficiaries can access needed medications and appropriate treatments for substance abuse disorder.    Since its inception in 2006, the Medicare part D prescription drug benefit has made medicines more available and affordable, leading to improvements in access to prescription drugs and better health outcomes.    Despite these successes, part D is not immune from the nationwide epidemic of opioid abuse. CMS has broadened its initial focus of strengthening beneficiary access to prescribed drugs to also address potential fraud and drug abuse by making sure part D sponsors implement effective safeguards and provide coverage for drug therapies that meet safety and efficacy standards.    We believe that broader reforms that result in better coordinated care will help protect beneficiaries from the damaging effects associated with prescription drug abuse and to prevent and detect overutilization related to prescription drugs.    A centerpiece of our strategy is to strengthen CMS's monitoring of part D plan sponsors' drug utilization management programs, to prevent overutilization of these medications. To accomplish this goal, the Medicare part D overutilization monitoring system, or OMS, was implemented in 2013. Through this system, CMS provides reports to sponsors on beneficiaries with potential opioid overutilization identified through analysis of prescription drug event data and through beneficiaries referred by the CMS Center for Program Integrity. Sponsors are expected to utilize various drug utilization monitoring tools to prevent continued overutilization of opioids. Recent data has shown that from 2011 to 2014, the OMS has reduced the number of potential opioid over-utilizers by appropriately 26 percent.    CMS also utilizes the Drug Integrity Contract, or MEDIC, which is charged with identifying and investigating potential fraud and abuse, and developing cases for referral to law enforcement agencies. In 2013, CMS directed the MEDIC to increase its focus on proactive data analysis in part D. CMS has also used our rule-making authority to create new tools to take action against problematic prescribers and pharmacies. We recently finalized a provision that requires prescribers of part D drugs to enroll or have a valid opt-out affidavit on file, and establishes a new revocation authority for abusing prescribing patterns.    State Medicaid agencies have also taken action to tackle the opioid abuse epidemic. Efforts include expanding the Medicaid benefit to include behavioral health services for those with addiction to prescription drugs and pharmacy management review programs. Although CMS does not determine what services are provided in each Medicaid program to prevent and treat opioid abuse, we are encouraged by the increasing efforts by States to develop effective strategies for designing benefits for this population.    We recently launched the Medicaid Innovation Accelerator Program, or IAP, to provide States with technical assistance and other types of support to address this important issue.    CMS, in coordination with CDC, SAMHSA, and NIH, issued an informational bulletin on medication-assisted treatment for Substance Abuse Disorder in the Medicaid program. This guidance outlines that a combination of medication and behavioral therapies is the most effective combination of treatment. We issued a similar bulletin focused on these services in the pediatric and youth population.    CMS is dedicated to providing the best possible care to beneficiaries with opioid addiction, and is working with part D sponsors and State Medicaid programs to implement effective safeguards to prevent opioid abuse and treat patients effectively with substance abuse disorders.    CMS has made progress, but there is more work to be done. CMS is undertaking multiple policy initiatives and interventions to reduce the rate of opioid addiction and overdoses in both Medicare and Medicaid.    In previous testimonies, I've never had family here or the time to thank them, so I do want to thank my mother, Diane Conway, is here and my son, Jack, who's out of school, as well as my wonderful wife, Heather, and daughters Alexa and Savannah. And without their love and support, I would not be able to work on issues like this that are critically important to our Nation. So thank you.</t>
   </si>
   <si>
@@ -232,9 +199,6 @@
     <t xml:space="preserve">    Mr. Botticelli. Let me start with that, because it's actually part of our statutory authority----</t>
   </si>
   <si>
-    <t>Botticelli (continuing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Botticelli (continuing). That we set in conjunction with, not just our HHS partners, but with all of the Federal agencies that have a role in substance use, and particularly in opioid use disorders. We have been engaged with the DOD and the VA and the Bureau of Prisons.</t>
   </si>
   <si>
@@ -313,9 +277,6 @@
     <t xml:space="preserve">    Ms. DeGette. Thank you.</t>
   </si>
   <si>
-    <t>Volkow (continuing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Volkow (continuing). And many times they overdose.</t>
   </si>
   <si>
@@ -328,9 +289,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. This is truly a fascinating topic we're discussing, and it's obvious there's no very easy solution. I mean, we've heard it's a chronic disease, 10 percent are seeking treatment. I guess my question maybe for Ms. Hyde at SAMHSA is, you know, certainly with pregnant women that may have young kids at home, and inpatient treatment might be the preferred, and we just can't let perfect be the enemy of good, what other options are you looking at for people who can't get in, I mean, they're just not going to enter inpatient, so they may be part of the 90 percent not getting treatment at all? Some treatment better than no treatment, as frustrating as that might be? What are your comments to the young mother that's got kids at home and she's pregnant and she's dependent and she just can't go into an inpatient center? What do we do for that patient?</t>
   </si>
   <si>
@@ -364,9 +322,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chairman. And let me join in welcoming the Conway family to the hearing, and let me compliment the Honorable Michael Botticelli for having the roots, origins in the 20th Congressional District of New York. So welcome all.    One of the biggest concerns I hear from individuals and families struggling with addiction is the difficulty they have accessing treatment. As you know, with the Mental Health Parity and Addiction Equity Act, as well as with our Affordable Care Act, millions more people have gained access to mental health and substance use services. However, recent reports have laid bare the fact that these new treatments as options sometimes exist on paper only.    So my question first to Assistant Secretary Frank, Dr. Frank, what is HHS planning to do to increase the public disclosure of the Medicaid management practices insurers use both on the commercial side and on Medicaid and CHIP so that consumers can truly evaluate their health plans to make sure they are in compliance with parity?</t>
   </si>
   <si>
@@ -433,9 +388,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you very much, Mr. Chairman, and thank you again for these hearings that we've been having on this topic.    As an engineer, I need to see things in perspective, and so I guess we've been following this over the last 4 years in Congress, and especially on this committee, been trying to look at this issue, and I think at one of the last meetings we just had, I tried to put it in perspective by saying from--Botticelli, you said there were 44,000 overdose deaths. I want people to understand, that's more than died in Vietnam in combat. I don't know that the American public understands that. And every day on the news, NBC or whatever, they had body counts and they had that, and people were outraged over that.    I'm not getting the sense of outrage over every year we lose as many people to drug overdose as we did in a 10-year war in Vietnam. I'm concerned when I had affirmed that in West Virginia, one in five babies born in West Virginia, and I'm sure it may be one in four in other States or so, but one in five babies, they've been affected with drugs. I keep thinking this in perspective by saying in Europe, the overdose rate is approximately 21 per million; in America, it's seven to 10 times that amount.    Now, I get a little on the verge of outrage. You know, I'm the father of four and grandfather of six, and I see these are what we're giving our kids, this is what the future is. And I hear this testimony from this panel of seven and the seven before that and the seven before that, and quite frankly, I get confused, because I don't known what the priority is.    From the business community and you all here in Washington, everyone loves to plan, but they don't carry out. Now, that may be insulting, and I don't mean it in an insulting fashion, but we still have 44,000 people who will die between now and next year because we don't have a prior--I'd like to think that we could come up with one plan, one way, if you had at least one, prioritize it, what's the one thing, and then let's put everything we have into it, that Manhattan-type project, go after that one solution and see if that doesn't start the ball rolling in the right way, and then we can do two, three and four with it, but a focus; but I don't see a focus. I didn't see a focus from you. I heard seven, eight different ways that we might be able to approach this problem, because the planning--everyone loves to plan, but the implementation falls short.    So, since you're meeting on a regular basis, couldn't you come up with one--one idea to where we ought to begin to where we can really--the metrics, we get the optics and everything, we can really dig into that, and then we can have plan B, C and D, but let's achieve one instead of continuing to melt down as we do at this. I don't want to see another statistic of 44,000 more people die of overdose.    So I hesitate to ask, can you come up with an idea today in the time frame, is there one, just one idea that we should focus on? What's the best way? Is that in the drug use, is that in real-time on purchasing the prescription drugs that it's a national database, is that the number one thing we should do? I mean, my God, the Federal Government just changed the sentencing guidelines for heroin and they said if you're caught with 50 hits of heroin, you get probation. What are we doing? Are we fighting heroin or not? I'm really frustrated with this, so I really--give me some more guidance on plan one.</t>
   </si>
   <si>
@@ -463,9 +415,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. I thank you very much, Mr. Chairman, and our ranking member, and thank you to all of our witnesses for giving the committee the benefit of your expertise and experience today.    I'd like to focus my questions on the prevention side of the equation, how do we prevent opioid addiction in the first place. So, Dr. Volkow, picking up actually on a point that Mr. Botticelli made just a moment ago about way too many prescriptions, this is to you: Why are so many prescriptions being written for opioids? Are physicians not getting the appropriate level of training and education in pain management for responsible opiate prescribing practices? What would you say?</t>
   </si>
   <si>
@@ -493,9 +442,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman, for continuing the focus on this critical subject for our country.    I want to start with you, Dr. Volkow. We talked about how the opioid addiction facing the country is, in large part, due to chronic pain. And you mentioned that 100 million people suffer from chronic pain. I've heard up to one in three Americans actually possibly suffer from chronic pain.    And one of the goals of this hearing is to try to focus on evidence-based treatment and new treatments in trying to find out what it is that is working. And, obviously, one treatment doesn't work for everyone, as we've heard.    But I learned about, in the course of examining this, that there are some technologies that are new, not completely new, but one being--I was told about spinal cord stimulation, which targets nerves with electrical impulses rather than drugs, and that clinical studies have shown it to be safe: 4,000 patients have received this stimulator. And so it obviously is a device, a technology that can actually stop that stimulation and can help hopefully end that addiction, but yet NIH hasn't included that in its draft pain strategy. It didn't mention technologies like SCS.    Can you talk at all about why it wouldn't be promoting this FDA-approved type of technology? And are there other technologies we ought to be talking about other than medication for chronic pain?</t>
   </si>
   <si>
@@ -523,9 +469,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    Before I get to some questions, I have got a followup question for Ms. Hyde. The last time that you were in front of this committee, which I really appreciate you coming back, we had discussed your Web sites and if they were an effective use of taxpayer dollars. At that time, you stated that you were all in the process of evaluating that. Have you finished that process yet?</t>
   </si>
   <si>
@@ -547,9 +490,6 @@
     <t xml:space="preserve">    Mr. Mullin. Right.</t>
   </si>
   <si>
-    <t>Hyde (continuing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Hyde (continuing). I think is the one you were concerned about. We have worked with our colleagues at NIDA and determined that the Web site hadn't been updated in a while, so it needed to be updated. So we have taken it down and are in the process of updating it.</t>
   </si>
   <si>
@@ -748,9 +688,6 @@
     <t xml:space="preserve">    Mr. Murphy. Yes, please.</t>
   </si>
   <si>
-    <t>DeGette (continuing)</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette (continuing). To supplement their testimony. They don't have to say it right now.</t>
   </si>
   <si>
@@ -764,9 +701,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Brooks. Indiana.</t>
-  </si>
-  <si>
-    <t>Murphy (continuing)</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy (continuing). Colorado, of course, and see what else is going on.    I want to thank this panel. We will follow up with the questions because we heard a number of recommendations from you, so we will ask for more clarifications of this.    Look, I want to thank you. As I said last time, too, you know, if this was about a single airplane crash, this room would be filled with media. But we have had more people die in the last year from drug overdose deaths than the combination of every airplane crash in North America from 1975 to the present. And we have to make sure we keep this on the front page. This is a serious crisis and one, whether it's education of physicians, mandatory education, whether it's options out there, we want to make sure the evidence-based care and that Federal funding is going in the right direction.    So I'd like to thank all the witnesses and members that participated in today's hearing.    I remind members they have 10 business days to submit questions for the record, and I ask that all the witnesses agree to respond promptly to the questions.    With that, this committee is adjourned. Thank you.    </t>
@@ -1168,11 +1102,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1194,11 +1126,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1218,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1246,11 +1174,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1270,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1298,11 +1222,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1322,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1350,11 +1270,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1374,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1402,11 +1318,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1426,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1454,11 +1366,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1478,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1506,11 +1414,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1530,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1558,11 +1462,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1582,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1610,11 +1510,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1636,11 +1534,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1660,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1686,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1714,11 +1606,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1738,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1766,11 +1654,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1790,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1818,11 +1702,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1842,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1870,11 +1750,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1896,11 +1774,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1920,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1948,11 +1822,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1972,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2000,11 +1870,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2024,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2052,11 +1918,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2076,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2104,11 +1966,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2128,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2156,11 +2014,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2180,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2208,11 +2062,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2232,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2260,11 +2110,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2284,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2312,11 +2158,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2336,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2364,11 +2206,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2388,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2416,11 +2254,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2440,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2468,11 +2302,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2492,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2520,11 +2350,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2544,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2572,11 +2398,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2596,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2624,11 +2446,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2650,11 +2470,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2674,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2700,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2726,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2752,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2778,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2804,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2830,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2856,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2882,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2908,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2934,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2960,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2986,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3012,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" t="s">
-        <v>99</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3038,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3066,11 +2854,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3090,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3116,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3142,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
-      </c>
-      <c r="G78" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3168,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
-      </c>
-      <c r="G79" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3194,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
-      </c>
-      <c r="G80" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3220,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3246,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
-      </c>
-      <c r="G82" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3272,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>45</v>
-      </c>
-      <c r="G83" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3298,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3326,11 +3094,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3350,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
-      </c>
-      <c r="G86" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3376,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3402,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3428,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>45</v>
-      </c>
-      <c r="G89" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3454,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3480,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>45</v>
-      </c>
-      <c r="G91" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3506,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3532,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3558,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3586,11 +3334,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3610,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
-      </c>
-      <c r="G96" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3638,11 +3382,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3662,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
-      </c>
-      <c r="G98" t="s">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3690,11 +3430,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3714,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
-      </c>
-      <c r="G100" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3742,11 +3478,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3766,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
-      </c>
-      <c r="G102" t="s">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3794,11 +3526,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3818,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
-      </c>
-      <c r="G104" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3844,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3870,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
-      </c>
-      <c r="G106" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3898,11 +3622,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3922,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>45</v>
-      </c>
-      <c r="G108" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3950,11 +3670,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3974,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
-      </c>
-      <c r="G110" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4000,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4026,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4054,11 +3766,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4078,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4106,11 +3814,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4130,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4158,11 +3862,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4182,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4208,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
-      </c>
-      <c r="G119" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4234,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4260,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>45</v>
-      </c>
-      <c r="G121" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4286,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4312,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
-      </c>
-      <c r="G123" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4338,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4366,11 +4054,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4390,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>158</v>
-      </c>
-      <c r="G126" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4416,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>45</v>
-      </c>
-      <c r="G127" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4442,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
-      </c>
-      <c r="G128" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4468,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
-      </c>
-      <c r="G129" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4494,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>158</v>
-      </c>
-      <c r="G130" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4520,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
-      </c>
-      <c r="G131" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4546,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>158</v>
-      </c>
-      <c r="G132" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4574,11 +4246,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4598,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>168</v>
-      </c>
-      <c r="G134" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4624,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
-      </c>
-      <c r="G135" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4650,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>168</v>
-      </c>
-      <c r="G136" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4676,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>45</v>
-      </c>
-      <c r="G137" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4702,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>168</v>
-      </c>
-      <c r="G138" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4728,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
-      </c>
-      <c r="G139" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4754,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>168</v>
-      </c>
-      <c r="G140" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4780,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
-      </c>
-      <c r="G141" t="s">
-        <v>177</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4806,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>168</v>
-      </c>
-      <c r="G142" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4832,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>45</v>
-      </c>
-      <c r="G143" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4858,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>168</v>
-      </c>
-      <c r="G144" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4884,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
-      </c>
-      <c r="G145" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4910,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>168</v>
-      </c>
-      <c r="G146" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4936,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>45</v>
-      </c>
-      <c r="G147" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4962,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>168</v>
-      </c>
-      <c r="G148" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4988,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
-      </c>
-      <c r="G149" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5014,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>168</v>
-      </c>
-      <c r="G150" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5040,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
-      </c>
-      <c r="G151" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5066,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
+        <v>150</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
         <v>168</v>
-      </c>
-      <c r="G152" t="s">
-        <v>169</v>
-      </c>
-      <c r="H152" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5092,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
-      </c>
-      <c r="G153" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5118,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
+        <v>150</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
         <v>168</v>
-      </c>
-      <c r="G154" t="s">
-        <v>169</v>
-      </c>
-      <c r="H154" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5144,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
-      </c>
-      <c r="G155" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5170,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>168</v>
-      </c>
-      <c r="G156" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5196,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
-      </c>
-      <c r="G157" t="s">
-        <v>55</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5222,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>168</v>
-      </c>
-      <c r="G158" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5248,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
-      </c>
-      <c r="G159" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5274,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>168</v>
-      </c>
-      <c r="G160" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5300,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>45</v>
-      </c>
-      <c r="G161" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5326,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>168</v>
-      </c>
-      <c r="G162" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5352,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>45</v>
-      </c>
-      <c r="G163" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5378,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>168</v>
-      </c>
-      <c r="G164" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5406,11 +5014,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5430,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>168</v>
-      </c>
-      <c r="G166" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5456,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>45</v>
-      </c>
-      <c r="G167" t="s">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5482,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>168</v>
-      </c>
-      <c r="G168" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5508,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>45</v>
-      </c>
-      <c r="G169" t="s">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5534,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>168</v>
-      </c>
-      <c r="G170" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5560,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>45</v>
-      </c>
-      <c r="G171" t="s">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5586,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>168</v>
-      </c>
-      <c r="G172" t="s">
-        <v>169</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5614,11 +5206,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5638,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>138</v>
-      </c>
-      <c r="G174" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5664,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
-      </c>
-      <c r="G175" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5690,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>138</v>
-      </c>
-      <c r="G176" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5716,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
-      </c>
-      <c r="G177" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5742,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>138</v>
-      </c>
-      <c r="G178" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5770,11 +5350,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5794,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>158</v>
-      </c>
-      <c r="G180" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5822,11 +5398,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5846,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>158</v>
-      </c>
-      <c r="G182" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5872,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>45</v>
-      </c>
-      <c r="G183" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5898,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>158</v>
-      </c>
-      <c r="G184" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5924,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
-      </c>
-      <c r="G185" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5950,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>158</v>
-      </c>
-      <c r="G186" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5976,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
-      </c>
-      <c r="G187" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6002,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>158</v>
-      </c>
-      <c r="G188" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6028,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
-      </c>
-      <c r="G189" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6054,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
-      </c>
-      <c r="G190" t="s">
-        <v>58</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6080,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>158</v>
-      </c>
-      <c r="G191" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6106,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
-      </c>
-      <c r="G192" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6132,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>158</v>
-      </c>
-      <c r="G193" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6158,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
-      </c>
-      <c r="G194" t="s">
-        <v>52</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6184,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>158</v>
-      </c>
-      <c r="G195" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6210,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
-      </c>
-      <c r="G196" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6236,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>158</v>
-      </c>
-      <c r="G197" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6264,11 +5806,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6288,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
-      </c>
-      <c r="G199" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6316,11 +5854,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6340,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
-      </c>
-      <c r="G201" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6368,11 +5902,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6392,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
-      </c>
-      <c r="G203" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6420,11 +5950,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6444,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
-      </c>
-      <c r="G205" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6472,11 +5998,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6496,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>15</v>
-      </c>
-      <c r="G207" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6524,11 +6046,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6548,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>45</v>
-      </c>
-      <c r="G209" t="s">
-        <v>244</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6576,11 +6094,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6600,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6628,11 +6142,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6652,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>158</v>
-      </c>
-      <c r="G213" t="s">
-        <v>159</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6678,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>45</v>
-      </c>
-      <c r="G214" t="s">
-        <v>250</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96270.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96270.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Well, good morning. Welcome here to the Oversight and Investigations Subcommittee hearing.    I just want to say it's Mental Health Month, so it's fitting that we are here today on this issue. This is the third in a series of hearings examining the growing problem of prescription drugs and heroin addiction that is ravaging our country. This is our Nation's single biggest public health concern.    Over the past 5 weeks, this subcommittee has heard from addiction experts working with local communities and our leading academic and research centers. Dr. Robert DuPont, the former White House Chief of Drug Control Policy and the first director of the National Institute on Drug Abuse, testified that Federal programs lack direction and standards on treating addiction as a chronic condition, and noted what is being done to follow up with patients to prevent relapses and put them on a path of real recovery? He challenged us to even ask the most fundamental question, ``What is recovery?''    Dr. Anna Lembke of Stanford Medical School provided critical testimony on how we must revise our healthcare quality measures to reduce overprescribing, reform medical privacy regulations, and incentivize the use of prescription drug monitoring programs.    We know that those with opiate addiction disorders need a broad range of treatment options and that many with substance abuse disorders have co-occurring psychiatric disorders, but we need to tear down Federal policy and funding barriers that keep us from treating both simultaneously.    About 3 weeks ago, one of today's witnesses, Mr. Michael Botticelli, the Director of the Office of National Drug Control Policy, presented a slide--I'm going to show it here--at the National Rx Summit on major causes of death from injury from 1999 to 2013. Quite a revealing slide. While the trends of other major causes of death, such as auto accidents went down, drug poisoning continued to go up 21 percent from 2008 till 2013. In many States, these numbers are soaring at high double-digit rate increases. As Mr. Botticelli has indicated to me privately and at the Rx Summit, we must do better, and we have much work to do.    Today, we will hear from Federal agencies charged with providing guidance, direction, and leadership in our Nation's public health response to the opiate epidemic. No Federal agency is more central in this ongoing epidemic than the Department of Health and Human Services or HHS. HHS and its Substance Abuse and Mental Health Services Administration, also known as SAMHSA, are responsible for leading our Nation's public health response to the opiate heroin abuse and addiction crisis.    SAMHSA regulates our country's 1,300 opiate treatment programs, and SAMHSA is responsible for certifying the 26,000 physicians who prescribe the most commonlyused opiate maintenance medication, buprenorphine. According to testimony provided by SAMHSA before this subcommittee in April of last year, there were nearly 1.5 million people treated with these opiate maintenance medications in 2012, which is a fivefold increase in the last 10 years.    Has SAMHSA defined the goal of recovery for what these federally subsidized treatment programs are supposed to accomplish? Is SAMHSA collecting and evaluating meaningful data at an individualized level that would hold grant recipients individually accountable for effective results? So far, preliminary examination indicates the answers are no. And when you don't define where you're going, every road you take still leaves you lost. So we're hoping we can get some direction today.    The numbers indicate we are failing as a Nation, and we darn well better come to terms with that. The 43,000 lives lost last year, the thousands of babies born addicted to opiates tell us the terrible toll this epidemic has taken. You've heard my thoughts about the Government-sponsored promotion of what I've characterized as addiction maintenance, and I refer to buprenorphine as heroin helper, not because the medication is altogether lacking, because it is helpful, but rather, because infrastructure the Federal Government has created for the use of this highly potent and important medication is not fully working and, worse yet, in many cases, contributing to the growing problem. This has to be fixed, and I hope we'll find some solutions, and that is what we need to discuss today openly, honestly, and humbly.    If we do not reverse the current trend, where is this going to end? How many millions of citizens do we want to have on opiate maintenance? How many more must die? And how many more lives and dreams must be shattered before we recognize the depth of this national scourge?    Now, I don't believe in better living through dependency. And, again, please do not misconstrue this critique as a general indictment of opiate maintenance. It is not. For some people, opiate maintenance is the most appropriate bridge treatment, and there should be no shame or stigma associated with it. But opiate maintenance therapy should not be the only treatment offered to the opiate-dependent individuals, and it is not the only goal.    What patients on opiate maintenance can be successfully transition off of these medications? What protocols are best for affecting this transition? What are the best practice for prevention of relapse for those patients who end opiate maintenance treatment? There are nonaddictive medications approved for this use, but are these medications widely available and how well do they work?    The diversion of buprenorphine for illicit nonmedical use is a related problem, because this is how the opiate epidemic can be spread. According to the DEA, buprenorphine is the third most often seized prescription opiate by law enforcement today. Where is a call to modernize our existing opiate addiction treatment system to ensure that the right patient gets the right treatment at the right time? Why aren't we hearing about expanding access to nonaddictive narcotic treatments that have zero potential for abuse or diversion, such as Naltrexone and evidence-based counseling? These are all incredibly important tools, and we want to make sure HHS talks more about these.    Last week, Dr. Westley Clark, the former Director of SAMHSA Center for Substance Abuse treatment and the man who oversaw the growth of buprenorphine over the past decade declared before the American Society of Addiction Medicine that many buprenorphine practices have become pill mills where doctors and dealers were increasingly indistinguishable and physician negligence and alleged laboratory fraud prevailed. The problem is not with buprenorphine, however. The problem lies with current practices, and this is what we need to discuss.    I consider opiate maintenance as a bridge for those with addiction disorders to cross over in the recovery process. And as I said, it is not a final destination. We seek to lay out a vision for recovery that includes complete withdrawal from opiates as an option. For cancer, for diabetes, for AIDS, we want people to be free of the diseases, not just learn to live with it. We need to commit the same sorts of things through our research and clinical efforts that boldly declare what we must change here.    I thank our witnesses for being here today.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400101</t>
   </si>
   <si>
+    <t>DeGette</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you so much, Mr. Chairman.    I think it's really important to hear from our witnesses today about the work the Federal Government is doing to address this serious public health issue, and I know all of the agencies represented before us do critical work to prevent and treat this epidemic.    In March, Secretary Burwell announced an initiative to combat the opioid crisis. I applaud the Department's actions, and I'm gratified to hear that this is one of the Secretary's top priorities. I want to hear more about this initiative today and how all the agencies before us are working together to accomplish its goals. But at the same time, I have some hard questions about our approach to caring for those who have substance abuse disorders.    Last week, we heard from a panel of medical experts who have vast experience in treating opioid addiction. Unfortunately, as the chairman said, they gave us a fairly bleak view of the opioid treatment landscape in this country. For example, one witness, Dr. Adam Bisaga, a psychiatrist at Columbia University and a research scientist at the New York State Psychiatric Institute, told the committee that the majority of patients being treated for opioid addiction received treatment that is both, ``outdated'' and ``mostly ineffective.'' He described this approach of rapid detoxification, followed by an abstinence-only method without the use of important treatment medications. Dr. Bisaga added that this is potentially dangerous because it raises the risk of an overdose if a patient relapses.    As troubling as this testimony from our last hearing was, today we have Dr. Volkow on our panel, who is one of the world's top experts on addiction research. And she notes--I'm sure you'll talk more about this, Doctor--in her written testimony that, ``Existing evidence-based prevention and treatment strategies are highly underutilized across the United States.''    Why is that, Mr. Chairman? Why do we have experts week after week telling us that the bulk of the treatment Americans are receiving for this devastating disease are ineffective, outdated, and not evidence based.    We need to be asking ourselves some tough questions. For example, Dr. Westreich, the president of the American Academy of Addiction Psychiatry, told us last week, ``Patients and their families need to know that detoxification treatment and drug-free counseling are associated with a very high risk of relapse.'' Are patients enrolling in treatment getting sufficient data so they can make medically informed choices? Are families and loved ones being told what approaches have high failure rates before choosing an approach to treatment? Frankly, this is not a decision that should be taken lightly. Getting ineffective treatment may not only be financially costly, but it may result in a fatal relapse.    Finally, Mr. Chairman, recent testimony, including some I saw in the written statements for today, raises important questions about whether taxpayer dollars should fund certain approaches for combating this opioid epidemic over others. This is an issue I've been talking about week after week. We all agree that we need the most effective treatment, and our experts agree that this treatment needs to be a broad menu of options that is different from patient to patient.    So we might not have a silver bullet to cure opioid addiction at this point, but we do know what treatments work better than others. Evidence tells us--and all the medical experts we heard from last week agree--that for most patients a combination of medication-assisted treatment and behavioral treatment, such as counseling and other supportive services, is the most effective way to treat opioid addiction. If that's the case, we should pursue more policies that encourage this approach as a clear option and steer away from any efforts that are not evidence based. It's costly, and it's dangerous to the patient.    So I hope we can all work together to fight this epidemic, and I do look forward to hearing from all of our witnesses. I'm glad Secretary Burwell and the department are devoting serious attention to addressing both the prevention and treatment sides of this problem.    And, Mr. Chairman, this has been a really great series. I'm happy to have a whole investigation like this in this committee. There's one group that we haven't heard from yet, I'm hoping----</t>
   </si>
   <si>
@@ -82,6 +97,12 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Upton. We really are going to have votes at 9:30?</t>
   </si>
   <si>
@@ -103,6 +124,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. I'll do the same, Mr. Chairman, because we both have to go to the other hearing.</t>
   </si>
   <si>
@@ -130,6 +157,12 @@
     <t>412543</t>
   </si>
   <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kennedy. Thank you very much for the consideration. I yield back.</t>
   </si>
   <si>
@@ -139,6 +172,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Botticelli</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Botticelli. Thank you, Chairman Murphy, Ranking Member DeGette, and members of the subcommittee for the opportunity to provide testimony to you today about the administration's efforts to address the opioid epidemic in the United States.    Mr. Chairman, as you recognized, in 2013 almost 44,000 Americans died of a drug overdose. That's one drug overdose death every 12 minutes. Using ONDCP's role as the coordinator of the Federal Drug Control agencies, in 2011, we published the administration's Prescription Drug Abuse Prevention Plan to address the sharp rise in prescription opioid drug abuse in this country since 1999. As you know, the plan consists of action items categorized under four pillars: Education of patients and prescribers; increased prescription drug monitoring; proper medication disposal; and informed law enforcement.    With the work of our HHS partners here today, and other Federal partners as part of the Interagency Prescription Drug Work Group convened by ONDCP, we have made some strides in each of these areas, but there is much more to be done.    Since time in graduate medical education programs devoted to the identification of treatment of substance abuse disorders is rare, we have worked with our Federal partners to develop continuing education programs about substance abuse, managing pain appropriately, and treating patients using opioids more safely. Many prescribers in Federal agencies, including HHS, are receiving this important training. Despite this, a large percentage of prescribers have not availed themselves of this training. Therefore, the administration continues to press for mandatory prescriber education tied to controlled substance licensure. I am pleased that Secretary Burwell has expressed her support for working with Congress to set requirements for specific training for opioid prescribers.    Today, all States but one, Missouri, have prescription drug monitoring programs that allow prescribers to check on drug interactions as well as alert them to the signs of dependence on opioids. Missouri is also working to authorize a PDMP program. With almost all States implementing PDMPs, we are focusing on improving State-to-State data sharing, and improving access to PDMP data within the health record systems providers use every day.    In October, the Drug Enforcement Administration's final regulation on controlled substances disposal became effective. ONDCP and our Federal partners and stakeholders have begun to inform the public about these regulations and look to ways to stimulate more local disposal programs in partnerships with pharmacies, local government, community groups, and local law enforcement.    And the work of our law enforcement partners at the Federal, State, and local levels is ongoing. Those engaged in fraud across the drug control supply chain are being investigated and prosecuted.    Recent data shows we are seeing an overdose from prescription opioids leveling off in this country, but a dramatic 39 percent increase in heroin overdoses from 2012 to 2013. This is creating an additional need for treatment in a system where a well-known gap between treatment capacity and demand already exists. Therefore, we must redouble our efforts to address people who are misusing prescription opioids, since we know this is a major risk factor for subsequent heroin use.    Earlier this week, the administration held the inaugural meeting of the congressionally mandated interagency Heroin Task Force. Mary Lou Leary, our Deputy Director for State, Local, and Tribal Affairs, is one the cochairs for this committee. In addition, the President's FY '16 budget request includes $99 million in additional funding for treatment and overdose prevention efforts.    We have also been working to increase access to the emergency opioid overdose reversal drug, naloxone, and to promote Good Samaritan laws so that witnesses can take steps to help save lives. Many police and fire departments have already trained and equipped their personnel with this life-saving drug, and loved ones of people with opioid drug use disorders are equipping themselves as well.    And while law enforcement and other first responders have an important role to play, the medical establishment also must become more engaged to identify and treat heroin and prescription opioid use disorders. Every day, these people appear in our emergency departments and other medical settings, and more models and interventions are needed to get these individuals engaged in care.    We also need to expand availability of evidence-based opioid use disorder treatments. Medication-assisted treatment, which uses FDA-approved medications, combined with behavioral and other recovery supports, has been shown to be the most effective treatment for opioid use disorders. Decisions about the most appropriate treatment options and their duration need to be agreed upon by both the patient and the treatment provider.    We must also provide community supports, such as access to housing, employment, and education, to give patients the functional tools they need to lead healthier lives and fully integrate into the community as part of their recovery process.    While we support multiple pathways to recovery, the literature shows that short-term treatment, such as detoxification alone, is not effective and carries risk of relapse and overdose death. Because of the lack of availability of evidence-based maintenance treatments and the strong connection between injection of opioid drugs and infectious disease transmission, we also promote the use of public health strategies that will help prevent the further spread of infectious disease. The HIV and hepatitis C outbreak in Scott County, Indiana, is a stark reminder of how opioid use can spread other diseases, how comprehensive public health strategies, such as syringe exchange programs, need to be part of the response to the opioid use epidemic, and how rural communities that have limited treatment capacity may experience additional public health crises.    Finally, we are continuing our efforts to address neonatal abstinence syndrome. Research published just yesterday shows that the incidence of NAS has grown nearly fivefold between 2000 and 2012 and that 81 percent of the 2012 hospital charges for NAS were attributed to Medicaid. We must consider that the best interest of babies with NAS is often served by best addressing the interests of the mother. Therefore, we need to provide safe harbor for pregnant and parenting women seeking prenatal care and treatment.    In conclusion, we look forward to working with Congress and our Federal partners on the next stage of action to address this epidemic. Thank you.</t>
   </si>
   <si>
@@ -154,30 +190,45 @@
     <t xml:space="preserve">    Mr. Murphy. All right. Thank you for being patient.    All right. Dr. Volkow, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Volkow</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Volkow. Good morning, Chairman Murphy, Ranking Member DeGette, and other members of the subcommittee. I want to thank you for organizing and inviting me to participate in this important hearing.    The nonmedical use of prescription pain relievers is a particular public health challenge, for it demands solutions, on the one hand, to prevent their diversion and misuse, while at the same time, it demands so many solutions that will not jeopardize access to these medications for those that need them.    Opiate medications are probably among the most effective painkillers that we have for the management of acute severe pain, and the proper use can actually save lives. They act by activating opioid receptors that are located in the areas of the brain that perceive pain, but there are very high concentration of opioid receptors in brain reward regions, and hence, the problem. Activation of these receptors is what is associated with their addiction potential.    There are also high levels of receptors in areas of the brain that regulate breathing, which is why their use is associated also with a high risk of death from overdose.    We have heard the devastating consequences from the escalation of the abuse of prescription medications in our country, the overdose deaths and transition to injection of heroin and associated infections with HIV and hepatitis C, and increasing numbers that we are seeing for the neonatal abstinence syndrome.    NIDA's role in helping solve this epidemic is to support the research that will help develop solutions to prevent and treat abuse of prescription medications that could be implemented now, while, at the same time, funding research that in the future will provide transformative solutions.    There are already evidence-based practices that have been shown to be effective in the prevention of overdose death that include the use of medications for opioid addiction and the use of naloxone to reverse opioid overdoses.    There are three medications currently available to treat opioid addiction: methadone, buprenorphine, and naltrexone, which, when used as part of a comprehensive addiction treatment plan, have been shown to facilitate abstinence and reduce overdoses and HIV infections. Also, when coupled to prenatal care in pregnant women addicted to opioids, these medications reduce the risk of obstetrical fetal and neonatal complications. Yet, despite the strong evidence, less than 40 percent of those receiving treatment for opioid addiction get treated with these medications. Toward this end, NIDA is funding research on implementation strategies that facilitate the use of medications for opioid addiction in the healthcare system.    Another key component to decrease the overdose deaths is to expand the use of naloxone, so NIDA has partnered with pharmaceutical companies to develop user-friendly, effective delivery systems for naloxone that will facilitate their use by those that have absolutely no medical training.    In addition, NIDA supports research on the treatment of pain and on the treatment of opioid addiction that will offer new solutions for the treatment of these two disorders. Examples for the management of pain include the development of drug combinations or new formulations with less addiction potential, the development of analgesics that do not rely on the opioid system, and the development of nonmedication interventions, such as the use of transcranial magnetic or electrical brain stimulation for pain management.    Examples of research on the treatment of opioid addiction include the development of slow-release formulations that need only once-a-month or once-every-6-months dosing--which will facilitate compliance and use--and the development of vaccines against heroin, which will prevent the delivery of the drug into the brain, hence, interfering with its rewarding effects and adverse consequences.    Because the epidemic of prescription drug abuse resulted from a lack of knowledge by healthcare providers, the importance of developing curriculum to train both in pain and in substance abuse disorders is another priority which NIDA has developed in partnership with the other institutes and NIH Centers of Excellence.    There were over 24,000 deaths from opioid overdoses in 2013. Twenty-four thousand. This highlights the urgency to address this epidemic. Solutions are already available. The challenge is the implementation. This requires strong integration of efforts, and NIDA will continue to work closely with other Federal agencies, community organizations, and private industries to address this complex challenge.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you.    Dr. Throckmorton, 5 minutes.</t>
   </si>
   <si>
+    <t>Throckmorton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Throckmorton.  Mr. Chairman, Ranking Member DeGette, and members of the subcommittee, I am Dr. Douglas Throckmorton, Deputy Director for Regulatory Programs within FDA's Center for Drug Evaluation and Research. Thank you for the opportunity to be here today to discuss FDA's role in combating opioid abuse and encouraging the safe use of these important drugs.    Our goal is to find the balance between needing to treat patients with pain, including the use of opioids where appropriate, and needing to reduce opioid drug abuse. This work is being done together with other parts of the Federal Government, and we know that a successful and sustainable response must include Federal and State Government, public health officials, opioid prescribers, addiction experts, researchers, manufacturers, and patient organizations.    For our part, FDA plays a central role in the regulation and use of drugs from their discovery and throughout their marketing. For example, when FDA reviews a drug for possible marketing, we also approve drug labeling, which includes information about approved uses about the medicine, as well as information about potential safety risks. FDA also carefully follows drugs after they are marketed, including opioid drugs. Where necessary, this enables us to take a variety of actions to improve their safe use, such as changes to approved labeling.    The first area of FDA activity I'd like to highlight is our work to support the development of abuse-deterrent formulations that make opioids harder or less rewarding to abuse. While this is not a silver bullet that will prevent all abuse, FDA believes abuse-deterrent opioids can help reduce opioid abuse. To incentivize their development, FDA recently issued final guidance on abuse-deterrent formulations, guidance we are using now to meet with sponsors interested in developing them.    To date, FDA has received some 30 investigational new drug applications from manufacturers. In addition, we have approved four opioid drugs with abuse-deterrent claims in their labeling.    Overall, then, while we are in the early stages of development, I am encouraged by this level of work. FDA envisions a day not far in the future when the majority of opioids in the marketplace are in effective, abuse-deterrent forms.    Next, with regards to prescribing opioids, we know that they are powerful medicines, and FDA believes that it is critically important to ensure that prescribers have high quality education about how to use them in pain management.    Over the past several years, FDA has done several things to improve educational materials on opioids. For example, we recently finalized required changes to the approved labels of extended-release, long-acting opioids, changing their indication to inform prescribers that these drugs should only be used for pain severe enough to require daily around-the-clock treatment when alternative treatments would not work.    At the same time, FDA strengthened significantly the safety warnings on these opioids. We want prescribers to use them with care, and today, the labels for extended-release, long-acting opioids are among the most restrictive of any drugs that we have in the center, and have clear language that calls attention to their potentially life-threatening risks.    FDA's also working to improve the information available for prescribers in other ways. Under certain circumstances, FDA can require manufacturers, as a part of a risk evaluation and mitigation strategy, to address safety concerns such as opioid abuse. In 2012, FDA required manufacturers to fund the development of unbiased continuing education programs on opioid prescribing practices for prescribers. In the first year since that program has been in place, approximately 6 percent of the 320,000 prescribers, around 20,000 prescribers of extended-release and long-acting opioids, have completed one of those courses. We believe this training for prescribers is important. We also support mandatory education for prescribers of opioids, as called for by the administration in the 2011 Prescription Drug Abuse Prevention Plan, and reemphasized in the 2014 National Drug Control Strategy.    Finally, FDA has been working with many other stakeholders, including the agencies here today, to explore the best ways to prevent overdose deaths by the expanded use of naloxone. As others have said, it can and does save lives. FDA is working to facilitate the development of naloxone formulations that could be easier to use by anyone responding to an overdose. First, FDA meets with manufacturers whenever needed and is using whatever tools we can to expedite product development. We recently approved the first auto-injector formulation of naloxone, which is intended to be administered by people witnessing an overdose, such as family members and caregivers. We completed that review and approved this product in 15 weeks.    Going forward, we continue to work on how best to use naloxone. As a part of this work, FDA, and many of the others agencies at this table, are planning a public meeting in July to bring together key stakeholders to deal with questions of access, coprescribing of naloxone, and State and local best practices.    In conclusion, as a society, we face an ongoing challenge and a dual responsibility. We must balance efforts to address opioid drug misuse, abuse, and addiction against the need for access to appropriate pain management. These are not simple issues and there are no easy answers. FDA is taking important actions we hope will achieve this balance. We welcome the opportunity to work with Congress, our Federal partners, the medical community, advocacy organizations, and the multitude of interested communities and families to turn the tide on this devastating epidemic.    Thank you for this opportunity to testify. I look forward to answering any questions that I can.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Doctor.    Dr. Houry.</t>
   </si>
   <si>
+    <t>Houry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Houry. Chairman Murphy, Ranking Member DeGette, I would like to thank you for inviting me here today to discuss this very important issue. I would also like to thank the committee for your continued interest in prescription opioid abuse and overdose. My name is Dr. Debra Houry, and I am the director of the National Center for Injury Prevention and Control at the     As a trained emergency room physician, I have seen firsthand the devastating impact of opioid addiction on individuals and their families, as well as the importance of prevention. Together, we have witnessed a deadly epidemic unfolding in States and communities across the country. The overdose epidemic is driven, in large part, by fundamental changes in the way healthcare providers prescribe opioid pain relievers. Enough prescriptions were filled in 2012 for every American adult to have their own bottle of pills. As the amount of opioids prescribed increased, so has the number of deaths.    In alignment with the Department's initiative, I want to highlight CDC's work in developing evidence-informed opioid prescribing guidelines for chronic pain and providing direct support to States to implement multi-sector prevention programs.    CDC is currently developing guidelines for the prescribing of opioids for chronic noncancer pain. This undertaking is responsive to a critical need in the field. These new guidelines will redefine best practices around opioid prescribing for chronic pain and make important advances in protecting patients. The audience for these guidelines are primary care practitioners, who account for the greatest number of prescriptions for opioids compared to other specialties. The guidelines process is underway, and our goal is to share a draft for public comment by the end of this year. We have plans in place to encourage uptake and usage of the guidelines among providers, which is key for improving prescribing practices.    The second activity I would like to highlight is our major investment in State-level prevention. States are at the front lines of this public health issue, and CDC is committed to equipping them with the expertise they need to reverse the epidemic and protect their communities. Utilizing the newly appropriated $20 million, we recently published a new funding opportunity called Prescription Drug Overdose: Prevention for States. It builds upon existing CDC-funded State programs and targets States that have a high drug overdose burden and those that demonstrate readiness needed to combat the epidemic. It requires collaboration across sectors for a truly comprehensive response.    The goals for this program are to make prescription drug monitoring programs more timely, easier to use, and able to communicate with other State PDMPs, to implement Medicaid or Workers' Compensation interventions to protect patients at risk, and to bring data-driven prevention to the communities struggling with the highest rates of drug abuse and overdose. States also will be given the flexibility to use the program to respond to emerging crises and develop innovative interventions so they know what works to reduce overdose and save lives in their community.    The development of opioid prescribing guidelines and our State prevention program are two key ways that CDC's broad work on the epidemic contributes to the Department's initiative.    We are also examining the increase in heroin use and overdose. Heroin overdose deaths have more than doubled since 2010, and prescription opioid abuse, a key risk factor for heroin use, has contributed significantly to this rise in heroin use and overdose. We will leverage our scientific expertise to improve public health surveillance of heroin and evaluate effective strategies to prevent future heroin overdoses.    Addressing this complex problem requires a multifaceted approach and collaboration among a variety of stakeholders, but it can be accomplished, particularly with the ongoing efforts of all of the organizations represented here on this panel.    CDC is committed to tracking and understanding the epidemic, supporting States working on the front lines of this crisis, and providing healthcare providers with the data, tools, and guidance they need to ensure safe patient care.    Thank you again for the opportunity to be here with you today and for your continued work and support of us protecting the public's health. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Doctor.    Pamela Hyde, welcome back.</t>
   </si>
   <si>
+    <t>Hyde</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hyde. Good morning, Chairman Murphy, Ranking Member DeGette, and members of the subcommittee. Thank you for inviting SAMHSA to be part of this hearing, and thank you for your interest in this important public health issue.    According to SAMHSA's National Survey on Drug Use and Health, the prevalence rate of nonmedical use of prescription opioids is high, approximately 4.5 million individuals in 2013. Heroin use is much lower, About 289,000 individuals reporting past month use, but that's doubled in 5 years.    Fortunately, the nonmedical use of pain relievers has actually decreased some from 2009 to 2013, especially among young people 12 to 17. However, as you know, overdoses and overdose-related deaths from both prescription drugs and heroin have risen dramatically among all ages. And as you've heard, few who need treatment are receiving the comprehensive community-based services they need to live lives in recovery, free of addiction.    SAMHSA believes prevention is the priority and recovery is the goal. SAMHSA's programs, data, practice improvement, public education, and regulatory efforts are all designed to prevent addiction and overdoses, help provide the treatment and services needed for people with substance abuse disorders to achieve recovery, support their families, and foster supportive communities.    SAMHSA funds the American Academy of Addiction Psychiatry, together with six other medical societies, to train prescribers in the best approaches to pain management. SAMHSA also educates physicians on medication-assisted treatment for opioid addiction. SAMHSA's Addiction Technology Transfer Centers provide training and materials on opioid use disorders, and are cofunded with NIDA to distribute research-based best practices to the field of addiction treatment.    To help prevent opioid-overdose-related deaths, SAMHSA alerted States last year that substance abuse treatment block grant funds may be used to purchase and distribute naloxone and increase education and training on its use. Also in 2014, SAMHSA updated its opioid overdose prevention toolkit to educate individuals, families, first responders, and others about steps to prevent and reverse the effects of opioid overdoses, including the use of naloxone. This toolkit's one of the most downloaded resources on SAMHSA's Web site.    The President's 2016 budget includes $12 million in discretionary grants for States to purchase and distribute naloxone, equip first responders in high risk communities, and support education on the use of naloxone and other overdose prevention strategies.    SAMHSA also supports medication-assisted treatment as part of a recovery-oriented, person-centered care model. Medication-assisted treatment is not meant as a standalone approach, but rather is designed to include medication, counseling, behavioral therapies, and recovery supports.    In March 2015, SAMHSA issued revised Federal guidelines for opioid treatment programs which highlight this recovery-oriented care model, and encouraged the use of any of the three FDA-approved medications for the treatment of opioid use disorder based on an assessment of each individual's unique needs.    SAMHSA's also taking an integrated clinical care approach as part of a new 2015 grant program to expand and enhance the availability of medication-assisted treatment and other clinically appropriate services in States with the highest rates of opioid admissions. The President's 2016 budget proposes to double this program.    In collaboration with DOJ and ONDCP, SAMHSA added language to its 2015 treatment drug court grant requirements to ensure that drug court clients will not be compelled to stop or be prevented from using medication if it is prescribed or dispensed consistent with a licensed prescriber's recommendation, a valid prescription, or as part of a regulated opioid treatment program.    SAMHSA regulates opioid treatment programs, which are expected to provide a full range of services for their patients. In collaboration with the Drug Enforcement Administration, SAMHSA provides waivers to physicians wishing to treat opioid use disorders with buprenorphine in a practice setting other than an opioid treatment program.    SAMHSA also funds efforts to help prevent prescription opioid misuse and heroin use. For example, in 2014, SAMHSA's Strategic Prevention Framework--Partnerships for Success program, made preventing and reducing heroin use one of its focus areas, along with prescription drug misuse and abuse, and underage drinking. For 2016, the President has proposed $10 million for the Strategic Prevention Framework Rx, or SPF Rx, to help States use data, including PDMP data, to identify and assist communities at high risk for the nonmedical use of prescription drugs.    We want to thank you, again, for taking on this issue and for allowing SAMHSA an opportunity to share some of its efforts with you. We look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you, Ms. Hyde.    Dr. Conway, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Conway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Conway. Chairman Murphy, Ranking Member DeGette, and members of the subcommittee, thank you for inviting me to discuss the CMS's work to ensure that all Medicare and Medicaid beneficiaries are receiving the medicines they need, while also reducing and preventing prescription drug abuse.    As we have heard from other witnesses, opioid analgesics have increasingly been implicated in drug overdose deaths over the last decade. As a practicing physician, I understand the importance of this issue.    CMS recognizes our responsibility to protect the health of Medicare and Medicaid beneficiaries by ensuring that appropriate safeguards are in place to help prevent overuse and abuse of opioids, while ensuring that beneficiaries can access needed medications and appropriate treatments for substance abuse disorder.    Since its inception in 2006, the Medicare part D prescription drug benefit has made medicines more available and affordable, leading to improvements in access to prescription drugs and better health outcomes.    Despite these successes, part D is not immune from the nationwide epidemic of opioid abuse. CMS has broadened its initial focus of strengthening beneficiary access to prescribed drugs to also address potential fraud and drug abuse by making sure part D sponsors implement effective safeguards and provide coverage for drug therapies that meet safety and efficacy standards.    We believe that broader reforms that result in better coordinated care will help protect beneficiaries from the damaging effects associated with prescription drug abuse and to prevent and detect overutilization related to prescription drugs.    A centerpiece of our strategy is to strengthen CMS's monitoring of part D plan sponsors' drug utilization management programs, to prevent overutilization of these medications. To accomplish this goal, the Medicare part D overutilization monitoring system, or OMS, was implemented in 2013. Through this system, CMS provides reports to sponsors on beneficiaries with potential opioid overutilization identified through analysis of prescription drug event data and through beneficiaries referred by the CMS Center for Program Integrity. Sponsors are expected to utilize various drug utilization monitoring tools to prevent continued overutilization of opioids. Recent data has shown that from 2011 to 2014, the OMS has reduced the number of potential opioid over-utilizers by appropriately 26 percent.    CMS also utilizes the Drug Integrity Contract, or MEDIC, which is charged with identifying and investigating potential fraud and abuse, and developing cases for referral to law enforcement agencies. In 2013, CMS directed the MEDIC to increase its focus on proactive data analysis in part D. CMS has also used our rule-making authority to create new tools to take action against problematic prescribers and pharmacies. We recently finalized a provision that requires prescribers of part D drugs to enroll or have a valid opt-out affidavit on file, and establishes a new revocation authority for abusing prescribing patterns.    State Medicaid agencies have also taken action to tackle the opioid abuse epidemic. Efforts include expanding the Medicaid benefit to include behavioral health services for those with addiction to prescription drugs and pharmacy management review programs. Although CMS does not determine what services are provided in each Medicaid program to prevent and treat opioid abuse, we are encouraged by the increasing efforts by States to develop effective strategies for designing benefits for this population.    We recently launched the Medicaid Innovation Accelerator Program, or IAP, to provide States with technical assistance and other types of support to address this important issue.    CMS, in coordination with CDC, SAMHSA, and NIH, issued an informational bulletin on medication-assisted treatment for Substance Abuse Disorder in the Medicaid program. This guidance outlines that a combination of medication and behavioral therapies is the most effective combination of treatment. We issued a similar bulletin focused on these services in the pediatric and youth population.    CMS is dedicated to providing the best possible care to beneficiaries with opioid addiction, and is working with part D sponsors and State Medicaid programs to implement effective safeguards to prevent opioid abuse and treat patients effectively with substance abuse disorders.    CMS has made progress, but there is more work to be done. CMS is undertaking multiple policy initiatives and interventions to reduce the rate of opioid addiction and overdoses in both Medicare and Medicaid.    In previous testimonies, I've never had family here or the time to thank them, so I do want to thank my mother, Diane Conway, is here and my son, Jack, who's out of school, as well as my wonderful wife, Heather, and daughters Alexa and Savannah. And without their love and support, I would not be able to work on issues like this that are critically important to our Nation. So thank you.</t>
   </si>
   <si>
@@ -199,6 +250,9 @@
     <t xml:space="preserve">    Mr. Botticelli. Let me start with that, because it's actually part of our statutory authority----</t>
   </si>
   <si>
+    <t>Botticelli (continuing)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Botticelli (continuing). That we set in conjunction with, not just our HHS partners, but with all of the Federal agencies that have a role in substance use, and particularly in opioid use disorders. We have been engaged with the DOD and the VA and the Bureau of Prisons.</t>
   </si>
   <si>
@@ -277,6 +331,9 @@
     <t xml:space="preserve">    Ms. DeGette. Thank you.</t>
   </si>
   <si>
+    <t>Volkow (continuing)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Volkow (continuing). And many times they overdose.</t>
   </si>
   <si>
@@ -289,6 +346,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. This is truly a fascinating topic we're discussing, and it's obvious there's no very easy solution. I mean, we've heard it's a chronic disease, 10 percent are seeking treatment. I guess my question maybe for Ms. Hyde at SAMHSA is, you know, certainly with pregnant women that may have young kids at home, and inpatient treatment might be the preferred, and we just can't let perfect be the enemy of good, what other options are you looking at for people who can't get in, I mean, they're just not going to enter inpatient, so they may be part of the 90 percent not getting treatment at all? Some treatment better than no treatment, as frustrating as that might be? What are your comments to the young mother that's got kids at home and she's pregnant and she's dependent and she just can't go into an inpatient center? What do we do for that patient?</t>
   </si>
   <si>
@@ -322,6 +385,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chairman. And let me join in welcoming the Conway family to the hearing, and let me compliment the Honorable Michael Botticelli for having the roots, origins in the 20th Congressional District of New York. So welcome all.    One of the biggest concerns I hear from individuals and families struggling with addiction is the difficulty they have accessing treatment. As you know, with the Mental Health Parity and Addiction Equity Act, as well as with our Affordable Care Act, millions more people have gained access to mental health and substance use services. However, recent reports have laid bare the fact that these new treatments as options sometimes exist on paper only.    So my question first to Assistant Secretary Frank, Dr. Frank, what is HHS planning to do to increase the public disclosure of the Medicaid management practices insurers use both on the commercial side and on Medicaid and CHIP so that consumers can truly evaluate their health plans to make sure they are in compliance with parity?</t>
   </si>
   <si>
@@ -388,6 +457,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you very much, Mr. Chairman, and thank you again for these hearings that we've been having on this topic.    As an engineer, I need to see things in perspective, and so I guess we've been following this over the last 4 years in Congress, and especially on this committee, been trying to look at this issue, and I think at one of the last meetings we just had, I tried to put it in perspective by saying from--Botticelli, you said there were 44,000 overdose deaths. I want people to understand, that's more than died in Vietnam in combat. I don't know that the American public understands that. And every day on the news, NBC or whatever, they had body counts and they had that, and people were outraged over that.    I'm not getting the sense of outrage over every year we lose as many people to drug overdose as we did in a 10-year war in Vietnam. I'm concerned when I had affirmed that in West Virginia, one in five babies born in West Virginia, and I'm sure it may be one in four in other States or so, but one in five babies, they've been affected with drugs. I keep thinking this in perspective by saying in Europe, the overdose rate is approximately 21 per million; in America, it's seven to 10 times that amount.    Now, I get a little on the verge of outrage. You know, I'm the father of four and grandfather of six, and I see these are what we're giving our kids, this is what the future is. And I hear this testimony from this panel of seven and the seven before that and the seven before that, and quite frankly, I get confused, because I don't known what the priority is.    From the business community and you all here in Washington, everyone loves to plan, but they don't carry out. Now, that may be insulting, and I don't mean it in an insulting fashion, but we still have 44,000 people who will die between now and next year because we don't have a prior--I'd like to think that we could come up with one plan, one way, if you had at least one, prioritize it, what's the one thing, and then let's put everything we have into it, that Manhattan-type project, go after that one solution and see if that doesn't start the ball rolling in the right way, and then we can do two, three and four with it, but a focus; but I don't see a focus. I didn't see a focus from you. I heard seven, eight different ways that we might be able to approach this problem, because the planning--everyone loves to plan, but the implementation falls short.    So, since you're meeting on a regular basis, couldn't you come up with one--one idea to where we ought to begin to where we can really--the metrics, we get the optics and everything, we can really dig into that, and then we can have plan B, C and D, but let's achieve one instead of continuing to melt down as we do at this. I don't want to see another statistic of 44,000 more people die of overdose.    So I hesitate to ask, can you come up with an idea today in the time frame, is there one, just one idea that we should focus on? What's the best way? Is that in the drug use, is that in real-time on purchasing the prescription drugs that it's a national database, is that the number one thing we should do? I mean, my God, the Federal Government just changed the sentencing guidelines for heroin and they said if you're caught with 50 hits of heroin, you get probation. What are we doing? Are we fighting heroin or not? I'm really frustrated with this, so I really--give me some more guidance on plan one.</t>
   </si>
   <si>
@@ -415,6 +490,12 @@
     <t>412221</t>
   </si>
   <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clarke. I thank you very much, Mr. Chairman, and our ranking member, and thank you to all of our witnesses for giving the committee the benefit of your expertise and experience today.    I'd like to focus my questions on the prevention side of the equation, how do we prevent opioid addiction in the first place. So, Dr. Volkow, picking up actually on a point that Mr. Botticelli made just a moment ago about way too many prescriptions, this is to you: Why are so many prescriptions being written for opioids? Are physicians not getting the appropriate level of training and education in pain management for responsible opiate prescribing practices? What would you say?</t>
   </si>
   <si>
@@ -442,6 +523,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman, for continuing the focus on this critical subject for our country.    I want to start with you, Dr. Volkow. We talked about how the opioid addiction facing the country is, in large part, due to chronic pain. And you mentioned that 100 million people suffer from chronic pain. I've heard up to one in three Americans actually possibly suffer from chronic pain.    And one of the goals of this hearing is to try to focus on evidence-based treatment and new treatments in trying to find out what it is that is working. And, obviously, one treatment doesn't work for everyone, as we've heard.    But I learned about, in the course of examining this, that there are some technologies that are new, not completely new, but one being--I was told about spinal cord stimulation, which targets nerves with electrical impulses rather than drugs, and that clinical studies have shown it to be safe: 4,000 patients have received this stimulator. And so it obviously is a device, a technology that can actually stop that stimulation and can help hopefully end that addiction, but yet NIH hasn't included that in its draft pain strategy. It didn't mention technologies like SCS.    Can you talk at all about why it wouldn't be promoting this FDA-approved type of technology? And are there other technologies we ought to be talking about other than medication for chronic pain?</t>
   </si>
   <si>
@@ -469,6 +556,12 @@
     <t>412568</t>
   </si>
   <si>
+    <t>Mullin</t>
+  </si>
+  <si>
+    <t>Markwayne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    Before I get to some questions, I have got a followup question for Ms. Hyde. The last time that you were in front of this committee, which I really appreciate you coming back, we had discussed your Web sites and if they were an effective use of taxpayer dollars. At that time, you stated that you were all in the process of evaluating that. Have you finished that process yet?</t>
   </si>
   <si>
@@ -490,6 +583,9 @@
     <t xml:space="preserve">    Mr. Mullin. Right.</t>
   </si>
   <si>
+    <t>Hyde (continuing)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Hyde (continuing). I think is the one you were concerned about. We have worked with our colleagues at NIDA and determined that the Web site hadn't been updated in a while, so it needed to be updated. So we have taken it down and are in the process of updating it.</t>
   </si>
   <si>
@@ -688,6 +784,9 @@
     <t xml:space="preserve">    Mr. Murphy. Yes, please.</t>
   </si>
   <si>
+    <t>DeGette (continuing)</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DeGette (continuing). To supplement their testimony. They don't have to say it right now.</t>
   </si>
   <si>
@@ -701,6 +800,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Brooks. Indiana.</t>
+  </si>
+  <si>
+    <t>Murphy (continuing)</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Murphy (continuing). Colorado, of course, and see what else is going on.    I want to thank this panel. We will follow up with the questions because we heard a number of recommendations from you, so we will ask for more clarifications of this.    Look, I want to thank you. As I said last time, too, you know, if this was about a single airplane crash, this room would be filled with media. But we have had more people die in the last year from drug overdose deaths than the combination of every airplane crash in North America from 1975 to the present. And we have to make sure we keep this on the front page. This is a serious crisis and one, whether it's education of physicians, mandatory education, whether it's options out there, we want to make sure the evidence-based care and that Federal funding is going in the right direction.    So I'd like to thank all the witnesses and members that participated in today's hearing.    I remind members they have 10 business days to submit questions for the record, and I ask that all the witnesses agree to respond promptly to the questions.    With that, this committee is adjourned. Thank you.    </t>
@@ -1052,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +1162,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,5117 +1184,6021 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>110</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>110</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s">
+        <v>67</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>110</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G82" t="s">
+        <v>110</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>110</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G86" t="s">
+        <v>123</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G88" t="s">
+        <v>123</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G90" t="s">
+        <v>123</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G92" t="s">
+        <v>123</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G93" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G94" t="s">
+        <v>123</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G96" t="s">
+        <v>52</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G100" t="s">
+        <v>52</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G102" t="s">
+        <v>78</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G104" t="s">
+        <v>67</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G106" t="s">
+        <v>52</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G108" t="s">
+        <v>52</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G110" t="s">
+        <v>147</v>
+      </c>
       <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G111" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G118" t="s">
+        <v>158</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G119" t="s">
+        <v>58</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G120" t="s">
+        <v>158</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G121" t="s">
+        <v>52</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G122" t="s">
+        <v>158</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G123" t="s">
+        <v>61</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G124" t="s">
+        <v>158</v>
+      </c>
       <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G126" t="s">
+        <v>169</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G127" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G128" t="s">
+        <v>169</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I128" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G129" t="s">
+        <v>58</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>141</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G130" t="s">
+        <v>169</v>
+      </c>
       <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I130" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G131" t="s">
+        <v>52</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G132" t="s">
+        <v>169</v>
+      </c>
       <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>150</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G134" t="s">
+        <v>180</v>
+      </c>
       <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>40</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G135" t="s">
+        <v>67</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G136" t="s">
+        <v>180</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G137" t="s">
+        <v>67</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G138" t="s">
+        <v>180</v>
+      </c>
       <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G139" t="s">
+        <v>67</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>150</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G140" t="s">
+        <v>180</v>
+      </c>
       <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G141" t="s">
+        <v>189</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G142" t="s">
+        <v>180</v>
+      </c>
       <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>150</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G144" t="s">
+        <v>180</v>
+      </c>
       <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G145" t="s">
+        <v>61</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>150</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G146" t="s">
+        <v>180</v>
+      </c>
       <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G147" t="s">
+        <v>61</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>150</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G148" t="s">
+        <v>180</v>
+      </c>
       <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G149" t="s">
+        <v>61</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>150</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G150" t="s">
+        <v>180</v>
+      </c>
       <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>40</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G151" t="s">
+        <v>61</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>150</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G152" t="s">
+        <v>180</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G153" t="s">
+        <v>61</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>150</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G154" t="s">
+        <v>180</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G155" t="s">
+        <v>61</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>150</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G156" t="s">
+        <v>180</v>
+      </c>
       <c r="H156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G157" t="s">
+        <v>61</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>150</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G158" t="s">
+        <v>180</v>
+      </c>
       <c r="H158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G159" t="s">
+        <v>64</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>150</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G160" t="s">
+        <v>180</v>
+      </c>
       <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I160" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G161" t="s">
+        <v>64</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>150</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G162" t="s">
+        <v>180</v>
+      </c>
       <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G163" t="s">
+        <v>64</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>150</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G164" t="s">
+        <v>180</v>
+      </c>
       <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>150</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G166" t="s">
+        <v>180</v>
+      </c>
       <c r="H166" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G167" t="s">
+        <v>70</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>150</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G168" t="s">
+        <v>180</v>
+      </c>
       <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I168" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>150</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G170" t="s">
+        <v>180</v>
+      </c>
       <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G171" t="s">
+        <v>70</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>150</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>179</v>
+      </c>
+      <c r="G172" t="s">
+        <v>180</v>
+      </c>
       <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I172" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>123</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G174" t="s">
+        <v>147</v>
+      </c>
       <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I174" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G175" t="s">
+        <v>58</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>123</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G176" t="s">
+        <v>147</v>
+      </c>
       <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I176" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G177" t="s">
+        <v>58</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>123</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G178" t="s">
+        <v>147</v>
+      </c>
       <c r="H178" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I178" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>141</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G180" t="s">
+        <v>169</v>
+      </c>
       <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I180" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>11</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
       <c r="H181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>141</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G182" t="s">
+        <v>169</v>
+      </c>
       <c r="H182" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>40</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G183" t="s">
+        <v>52</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>141</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G184" t="s">
+        <v>169</v>
+      </c>
       <c r="H184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G185" t="s">
+        <v>52</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>141</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G186" t="s">
+        <v>169</v>
+      </c>
       <c r="H186" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I186" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G187" t="s">
+        <v>52</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>141</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G188" t="s">
+        <v>169</v>
+      </c>
       <c r="H188" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G189" t="s">
+        <v>52</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G190" t="s">
+        <v>64</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>141</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G191" t="s">
+        <v>169</v>
+      </c>
       <c r="H191" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G192" t="s">
+        <v>58</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>141</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G193" t="s">
+        <v>169</v>
+      </c>
       <c r="H193" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G194" t="s">
+        <v>58</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>141</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G195" t="s">
+        <v>169</v>
+      </c>
       <c r="H195" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I195" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G196" t="s">
+        <v>67</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>141</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G197" t="s">
+        <v>169</v>
+      </c>
       <c r="H197" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I197" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
       <c r="H198" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G199" t="s">
+        <v>67</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
       <c r="H200" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G201" t="s">
+        <v>52</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
       <c r="H202" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G203" t="s">
+        <v>52</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
       <c r="H204" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G205" t="s">
+        <v>37</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s">
+        <v>18</v>
+      </c>
       <c r="H207" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I207" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
       <c r="H208" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="G209" t="s">
+        <v>256</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
       <c r="H210" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s">
+        <v>18</v>
+      </c>
       <c r="H211" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I211" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
       <c r="H212" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>141</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="G213" t="s">
+        <v>169</v>
+      </c>
       <c r="H213" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>170</v>
+      </c>
+      <c r="I213" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>229</v>
+        <v>51</v>
+      </c>
+      <c r="G214" t="s">
+        <v>262</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96270.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96270.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Murphy</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400101</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>DeGette</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>400414</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Upton</t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>412543</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Kennedy</t>
   </si>
   <si>
@@ -455,6 +470,9 @@
   </si>
   <si>
     <t>412487</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>McKinley</t>
@@ -1154,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:J214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,7 +1180,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,6018 +1205,6496 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
-      </c>
-      <c r="G61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
-      </c>
-      <c r="G63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67" t="s">
-        <v>64</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
-      </c>
-      <c r="G69" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>110</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s">
-        <v>67</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G82" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G84" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G86" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
-      </c>
-      <c r="G89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I90" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>63</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I92" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I94" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s">
-        <v>52</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s">
-        <v>78</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>83</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
-      </c>
-      <c r="G100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s">
-        <v>78</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>83</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s">
-        <v>67</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
-      </c>
-      <c r="G106" t="s">
-        <v>52</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
-      </c>
-      <c r="G108" t="s">
-        <v>52</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G110" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H110" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>51</v>
-      </c>
-      <c r="G111" t="s">
-        <v>52</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>51</v>
-      </c>
-      <c r="G112" t="s">
-        <v>37</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
-      </c>
-      <c r="G114" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
-      </c>
-      <c r="G116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="H118" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
-      </c>
-      <c r="G119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>63</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
-      </c>
-      <c r="G121" t="s">
-        <v>52</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G122" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="H122" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>51</v>
-      </c>
-      <c r="G123" t="s">
-        <v>61</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G126" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H126" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I126" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>51</v>
-      </c>
-      <c r="G127" t="s">
-        <v>58</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>63</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G128" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H128" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I128" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>51</v>
-      </c>
-      <c r="G129" t="s">
-        <v>58</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>63</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G130" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H130" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I130" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
-      </c>
-      <c r="G131" t="s">
-        <v>52</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G132" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G134" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I134" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>51</v>
-      </c>
-      <c r="G135" t="s">
-        <v>67</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G136" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H136" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I136" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>51</v>
-      </c>
-      <c r="G137" t="s">
-        <v>67</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G138" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H138" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I138" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>51</v>
-      </c>
-      <c r="G139" t="s">
-        <v>67</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G140" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I140" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>51</v>
-      </c>
-      <c r="G141" t="s">
-        <v>189</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>195</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G142" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H142" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
-      </c>
-      <c r="G143" t="s">
-        <v>67</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>72</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G144" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>51</v>
-      </c>
-      <c r="G145" t="s">
-        <v>61</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>66</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G146" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H146" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I146" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>51</v>
-      </c>
-      <c r="G147" t="s">
-        <v>61</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>66</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G148" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I148" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
-      </c>
-      <c r="G149" t="s">
-        <v>61</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G150" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>51</v>
-      </c>
-      <c r="G151" t="s">
-        <v>61</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>66</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G152" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H152" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I152" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>51</v>
-      </c>
-      <c r="G153" t="s">
-        <v>61</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>66</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G154" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J154" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
-      </c>
-      <c r="G155" t="s">
-        <v>61</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G156" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I156" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J156" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
-      </c>
-      <c r="G157" t="s">
-        <v>61</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>66</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G158" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I158" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J158" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>51</v>
-      </c>
-      <c r="G159" t="s">
-        <v>64</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>69</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G160" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I160" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J160" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>51</v>
-      </c>
-      <c r="G161" t="s">
-        <v>64</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>69</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G162" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H162" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I162" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J162" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
-      </c>
-      <c r="G163" t="s">
-        <v>64</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>69</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G164" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H164" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I164" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J164" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G166" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H166" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I166" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J166" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>51</v>
-      </c>
-      <c r="G167" t="s">
-        <v>70</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G168" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H168" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I168" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J168" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>51</v>
-      </c>
-      <c r="G169" t="s">
-        <v>70</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>75</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G170" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H170" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I170" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>51</v>
-      </c>
-      <c r="G171" t="s">
-        <v>70</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G172" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="H172" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I172" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="J172" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I173" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J173" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G174" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H174" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I174" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J174" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>51</v>
-      </c>
-      <c r="G175" t="s">
-        <v>58</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>63</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G176" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H176" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I176" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>51</v>
-      </c>
-      <c r="G177" t="s">
-        <v>58</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>63</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G178" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H178" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I178" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="J178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G180" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H180" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I180" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J180" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G182" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H182" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I182" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J182" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>51</v>
-      </c>
-      <c r="G183" t="s">
-        <v>52</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>57</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G184" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H184" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I184" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J184" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>51</v>
-      </c>
-      <c r="G185" t="s">
-        <v>52</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>57</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G186" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H186" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J186" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>51</v>
-      </c>
-      <c r="G187" t="s">
-        <v>52</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>57</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G188" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H188" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I188" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J188" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>51</v>
-      </c>
-      <c r="G189" t="s">
-        <v>52</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>57</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>51</v>
-      </c>
-      <c r="G190" t="s">
-        <v>64</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>69</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G191" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H191" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I191" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
-      </c>
-      <c r="G192" t="s">
-        <v>58</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>63</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G193" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H193" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J193" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>51</v>
-      </c>
-      <c r="G194" t="s">
-        <v>58</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>63</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G195" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H195" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I195" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J195" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
-      </c>
-      <c r="G196" t="s">
-        <v>67</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>72</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G197" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H197" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I197" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J197" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I198" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>51</v>
-      </c>
-      <c r="G199" t="s">
-        <v>67</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>72</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I200" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>51</v>
-      </c>
-      <c r="G201" t="s">
-        <v>52</v>
-      </c>
-      <c r="H201" t="s"/>
-      <c r="I201" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
+        <v>57</v>
+      </c>
+      <c r="I201" t="s"/>
+      <c r="J201" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I202" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J202" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>51</v>
-      </c>
-      <c r="G203" t="s">
-        <v>52</v>
-      </c>
-      <c r="H203" t="s"/>
-      <c r="I203" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
+        <v>57</v>
+      </c>
+      <c r="I203" t="s"/>
+      <c r="J203" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J204" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>51</v>
-      </c>
-      <c r="G205" t="s">
-        <v>37</v>
-      </c>
-      <c r="H205" t="s"/>
-      <c r="I205" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G205" t="s"/>
+      <c r="H205" t="s">
+        <v>41</v>
+      </c>
+      <c r="I205" t="s"/>
+      <c r="J205" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G207" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H207" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I207" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J207" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J208" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>51</v>
-      </c>
-      <c r="G209" t="s">
-        <v>256</v>
-      </c>
-      <c r="H209" t="s"/>
-      <c r="I209" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="G209" t="s"/>
+      <c r="H209" t="s">
+        <v>262</v>
+      </c>
+      <c r="I209" t="s"/>
+      <c r="J209" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I210" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J210" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G211" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I211" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J211" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F213" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G213" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="H213" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I213" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J213" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F214" t="s">
-        <v>51</v>
-      </c>
-      <c r="G214" t="s">
-        <v>262</v>
-      </c>
-      <c r="H214" t="s"/>
-      <c r="I214" t="s">
-        <v>263</v>
+        <v>56</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
+        <v>268</v>
+      </c>
+      <c r="I214" t="s"/>
+      <c r="J214" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
